--- a/model/Output Files/Year 7.xlsx
+++ b/model/Output Files/Year 7.xlsx
@@ -1151,7 +1151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1175,51 +1175,6 @@
           <t>Retired Capacity</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>('Diesel Generator', 'Added Capacity')</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>('Diesel Generator', 'Installed Capacity')</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>('Diesel Generator', 'Retired Capacity')</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned PV', 'Added Capacity')</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned PV', 'Installed Capacity')</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned PV', 'Retired Capacity')</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned Batteries', 'Added Capacity')</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned Batteries', 'Installed Capacity')</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned Batteries', 'Retired Capacity')</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1236,33 +1191,6 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>105</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2</v>
-      </c>
-      <c r="L2" t="n">
-        <v>163</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1271,40 +1199,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>105</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>163</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1314,39 +1215,12 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>105</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>163</v>
-      </c>
-      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1529,46 +1403,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>52.5</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>73.5</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>94.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>94.5</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>66.36876849301115</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>52.5</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1618,31 +1492,31 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>85.2490562187532</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>73.5</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>52.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>52.5</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1698,25 +1572,25 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>73.5</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>73.5</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>3.883124171002949</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -1853,40 +1727,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.2</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>21.3</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>63.2</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>63.3</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>55.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>40.36876849301115</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>18.7</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -1942,28 +1816,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>61.84905621875319</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>73.5</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>23.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2022,25 +1896,25 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>73.5</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>73.5</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>3.883124171002949</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2165,16 +2039,16 @@
         <v>32.5</v>
       </c>
       <c r="C2" t="n">
-        <v>32.5</v>
+        <v>19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>32.5</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2213,25 +2087,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>10.1</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -2239,23 +2113,23 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19.5</v>
+        <v>32.5</v>
       </c>
       <c r="C3" t="n">
         <v>19.5</v>
       </c>
       <c r="D3" t="n">
+        <v>13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>19.5</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
@@ -2290,10 +2164,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>20.6</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2302,13 +2176,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -2316,10 +2190,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>32.5</v>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>19.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2331,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2370,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2385,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2489,73 +2363,73 @@
         <v>189.4909090909091</v>
       </c>
       <c r="C2" t="n">
-        <v>182.9252525252525</v>
+        <v>169.7939393939394</v>
       </c>
       <c r="D2" t="n">
-        <v>169.7939393939394</v>
+        <v>156.6626262626263</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>143.5313131313131</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>143.468</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>172.178</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>193.265</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>217.0249999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>264.05</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>326.6179999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>397.0069999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>475.217</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>537.8839999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>592.7299999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>632.6950808080809</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>651.2080808080809</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>641.0060606060607</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>609.6929292929294</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>491.5111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>393.0262626262627</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>314.2383838383839</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>261.7131313131313</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>222.3191919191919</v>
       </c>
     </row>
     <row r="3">
@@ -2563,7 +2437,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>169.7939393939394</v>
+        <v>182.9252525252525</v>
       </c>
       <c r="C3" t="n">
         <v>163.2282828282828</v>
@@ -2572,67 +2446,67 @@
         <v>150.0969696969697</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>150.0969696969697</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>150.0969696969697</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>213.56</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>213.56</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>274.7905656565657</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>332.2105656565657</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>404.9755656565657</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>428.6365656565657</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>454.8715656565657</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>486.0565656565657</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>465.2484848484848</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>333.9353535353536</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>333.9353535353536</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>333.9353535353536</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>255.1474747474747</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>255.1474747474747</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>215.7535353535353</v>
       </c>
     </row>
     <row r="4">
@@ -2640,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>156.6626262626263</v>
+        <v>169.7939393939394</v>
       </c>
       <c r="C4" t="n">
         <v>150.0969696969697</v>
@@ -2649,67 +2523,67 @@
         <v>150.0969696969697</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>150.0969696969697</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>150.0969696969697</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>203.165</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>203.165</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>286.325</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>359.09</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>362.934292929293</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>362.934292929293</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>373.3292929292929</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>373.3292929292929</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>242.0161616161616</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>242.0161616161616</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>242.0161616161616</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>242.0161616161616</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.0161616161616</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>202.6222222222222</v>
       </c>
     </row>
   </sheetData>

--- a/model/Output Files/Year 7.xlsx
+++ b/model/Output Files/Year 7.xlsx
@@ -1125,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>76376.04000000001</v>
+        <v>76326.84612799998</v>
       </c>
       <c r="C2" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="D2" t="n">
-        <v>9310.695971227427</v>
+        <v>9307.780929750719</v>
       </c>
       <c r="E2" t="n">
-        <v>2390</v>
+        <v>2375</v>
       </c>
       <c r="F2" t="n">
-        <v>30814.26254109102</v>
+        <v>31040.02603473204</v>
       </c>
     </row>
   </sheetData>
@@ -1199,10 +1199,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>163</v>
@@ -1403,46 +1403,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="H2" t="n">
-        <v>42</v>
+        <v>41.6</v>
       </c>
       <c r="I2" t="n">
-        <v>52.5</v>
+        <v>52</v>
       </c>
       <c r="J2" t="n">
-        <v>63</v>
+        <v>62.4</v>
       </c>
       <c r="K2" t="n">
-        <v>73.5</v>
+        <v>72.8</v>
       </c>
       <c r="L2" t="n">
-        <v>84</v>
+        <v>83.2</v>
       </c>
       <c r="M2" t="n">
-        <v>94.5</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O2" t="n">
-        <v>94.5</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>84</v>
+        <v>83.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>66.36876849301115</v>
+        <v>72.8</v>
       </c>
       <c r="R2" t="n">
-        <v>52.5</v>
+        <v>52</v>
       </c>
       <c r="S2" t="n">
-        <v>31.5</v>
+        <v>31.2</v>
       </c>
       <c r="T2" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1486,37 +1486,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="K3" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>37.05311702887473</v>
       </c>
       <c r="M3" t="n">
-        <v>85.2490562187532</v>
+        <v>104</v>
       </c>
       <c r="N3" t="n">
-        <v>84</v>
+        <v>83.2</v>
       </c>
       <c r="O3" t="n">
-        <v>73.5</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>52.5</v>
+        <v>52</v>
       </c>
       <c r="Q3" t="n">
-        <v>52.5</v>
+        <v>52</v>
       </c>
       <c r="R3" t="n">
-        <v>31.5</v>
+        <v>31.2</v>
       </c>
       <c r="S3" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1566,31 +1566,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="L4" t="n">
-        <v>73.5</v>
+        <v>72.8</v>
       </c>
       <c r="M4" t="n">
         <v>23.4</v>
       </c>
       <c r="N4" t="n">
-        <v>84</v>
+        <v>37.38312417100297</v>
       </c>
       <c r="O4" t="n">
-        <v>73.5</v>
+        <v>72.8</v>
       </c>
       <c r="P4" t="n">
-        <v>3.883124171002949</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -1727,40 +1727,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="H2" t="n">
-        <v>29</v>
+        <v>28.6</v>
       </c>
       <c r="I2" t="n">
-        <v>21.3</v>
+        <v>20.8</v>
       </c>
       <c r="J2" t="n">
-        <v>24</v>
+        <v>23.4</v>
       </c>
       <c r="K2" t="n">
-        <v>47.5</v>
+        <v>46.8</v>
       </c>
       <c r="L2" t="n">
-        <v>63.2</v>
+        <v>62.4</v>
       </c>
       <c r="M2" t="n">
-        <v>71.09999999999999</v>
+        <v>70.2</v>
       </c>
       <c r="N2" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O2" t="n">
-        <v>63.3</v>
+        <v>62.4</v>
       </c>
       <c r="P2" t="n">
-        <v>55.4</v>
+        <v>54.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>40.36876849301115</v>
+        <v>46.8</v>
       </c>
       <c r="R2" t="n">
-        <v>18.7</v>
+        <v>18.2</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -1810,34 +1810,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="K3" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>37.05311702887473</v>
       </c>
       <c r="M3" t="n">
-        <v>61.84905621875319</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>58</v>
+        <v>57.2</v>
       </c>
       <c r="O3" t="n">
-        <v>73.5</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>23.9</v>
+        <v>23.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>26.5</v>
+        <v>26</v>
       </c>
       <c r="R3" t="n">
-        <v>31.5</v>
+        <v>31.2</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1890,31 +1890,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="L4" t="n">
-        <v>73.5</v>
+        <v>72.8</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>84</v>
+        <v>37.38312417100297</v>
       </c>
       <c r="O4" t="n">
-        <v>73.5</v>
+        <v>72.8</v>
       </c>
       <c r="P4" t="n">
-        <v>3.883124171002949</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2087,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>10.1</v>
+        <v>9.048519999999897</v>
       </c>
       <c r="T2" t="n">
-        <v>31</v>
+        <v>31.2</v>
       </c>
       <c r="U2" t="n">
         <v>117</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="T3" t="n">
         <v>130</v>
@@ -2366,7 +2366,7 @@
         <v>169.7939393939394</v>
       </c>
       <c r="D2" t="n">
-        <v>156.6626262626263</v>
+        <v>156.6626262626262</v>
       </c>
       <c r="E2" t="n">
         <v>143.5313131313131</v>
@@ -2375,52 +2375,52 @@
         <v>130.4</v>
       </c>
       <c r="G2" t="n">
-        <v>143.468</v>
+        <v>143.27</v>
       </c>
       <c r="H2" t="n">
-        <v>172.178</v>
+        <v>171.584</v>
       </c>
       <c r="I2" t="n">
-        <v>193.265</v>
+        <v>192.176</v>
       </c>
       <c r="J2" t="n">
-        <v>217.0249999999999</v>
+        <v>215.3419999999998</v>
       </c>
       <c r="K2" t="n">
-        <v>264.05</v>
+        <v>261.6739999999998</v>
       </c>
       <c r="L2" t="n">
-        <v>326.6179999999999</v>
+        <v>323.45</v>
       </c>
       <c r="M2" t="n">
-        <v>397.0069999999999</v>
+        <v>392.9479999999998</v>
       </c>
       <c r="N2" t="n">
-        <v>475.217</v>
+        <v>470.1679999999998</v>
       </c>
       <c r="O2" t="n">
-        <v>537.8839999999999</v>
+        <v>531.9439999999997</v>
       </c>
       <c r="P2" t="n">
-        <v>592.7299999999999</v>
+        <v>585.9979999999997</v>
       </c>
       <c r="Q2" t="n">
-        <v>632.6950808080809</v>
+        <v>632.3299999999997</v>
       </c>
       <c r="R2" t="n">
-        <v>651.2080808080809</v>
+        <v>650.3479999999997</v>
       </c>
       <c r="S2" t="n">
-        <v>641.0060606060607</v>
+        <v>641.2080808080807</v>
       </c>
       <c r="T2" t="n">
-        <v>609.6929292929294</v>
+        <v>609.6929292929292</v>
       </c>
       <c r="U2" t="n">
         <v>491.5111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>393.0262626262627</v>
+        <v>393.0262626262626</v>
       </c>
       <c r="W2" t="n">
         <v>314.2383838383839</v>
@@ -2458,37 +2458,37 @@
         <v>130.4</v>
       </c>
       <c r="I3" t="n">
-        <v>130.4</v>
+        <v>171.584</v>
       </c>
       <c r="J3" t="n">
-        <v>130.4</v>
+        <v>233.36</v>
       </c>
       <c r="K3" t="n">
-        <v>213.56</v>
+        <v>233.36</v>
       </c>
       <c r="L3" t="n">
-        <v>213.56</v>
+        <v>270.042585858586</v>
       </c>
       <c r="M3" t="n">
-        <v>274.7905656565657</v>
+        <v>349.836585858586</v>
       </c>
       <c r="N3" t="n">
-        <v>332.2105656565657</v>
+        <v>406.464585858586</v>
       </c>
       <c r="O3" t="n">
-        <v>404.9755656565657</v>
+        <v>406.464585858586</v>
       </c>
       <c r="P3" t="n">
-        <v>428.6365656565657</v>
+        <v>429.630585858586</v>
       </c>
       <c r="Q3" t="n">
-        <v>454.8715656565657</v>
+        <v>455.370585858586</v>
       </c>
       <c r="R3" t="n">
-        <v>486.0565656565657</v>
+        <v>486.2585858585859</v>
       </c>
       <c r="S3" t="n">
-        <v>465.2484848484848</v>
+        <v>465.2484848484849</v>
       </c>
       <c r="T3" t="n">
         <v>333.9353535353536</v>
@@ -2538,28 +2538,28 @@
         <v>130.4</v>
       </c>
       <c r="J4" t="n">
-        <v>130.4</v>
+        <v>140.696</v>
       </c>
       <c r="K4" t="n">
-        <v>130.4</v>
+        <v>181.88</v>
       </c>
       <c r="L4" t="n">
-        <v>203.165</v>
+        <v>253.952</v>
       </c>
       <c r="M4" t="n">
-        <v>203.165</v>
+        <v>253.952</v>
       </c>
       <c r="N4" t="n">
-        <v>286.325</v>
+        <v>290.9612929292929</v>
       </c>
       <c r="O4" t="n">
-        <v>359.09</v>
+        <v>363.0332929292929</v>
       </c>
       <c r="P4" t="n">
-        <v>362.934292929293</v>
+        <v>363.0332929292929</v>
       </c>
       <c r="Q4" t="n">
-        <v>362.934292929293</v>
+        <v>363.0332929292929</v>
       </c>
       <c r="R4" t="n">
         <v>373.3292929292929</v>
@@ -3059,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.351480000000105</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>

--- a/model/Output Files/Year 7.xlsx
+++ b/model/Output Files/Year 7.xlsx
@@ -1125,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>76326.84612799998</v>
+        <v>77388.66797673708</v>
       </c>
       <c r="C2" t="n">
         <v>200</v>
       </c>
       <c r="D2" t="n">
-        <v>9307.780929750719</v>
+        <v>7066.221906540153</v>
       </c>
       <c r="E2" t="n">
-        <v>2375</v>
+        <v>900</v>
       </c>
       <c r="F2" t="n">
-        <v>31040.02603473204</v>
+        <v>33341.57337214539</v>
       </c>
     </row>
   </sheetData>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1403,46 +1403,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>62.4</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>93.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>93.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>31.2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1486,37 +1486,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.4</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37.05311702887473</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>31.2</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1566,22 +1566,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>37.38312417100297</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -1727,46 +1727,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13</v>
+        <v>50.7</v>
       </c>
       <c r="H2" t="n">
-        <v>28.6</v>
+        <v>26.5</v>
       </c>
       <c r="I2" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>46.8</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>62.4</v>
+        <v>34.53427201306115</v>
       </c>
       <c r="M2" t="n">
-        <v>70.2</v>
+        <v>150</v>
       </c>
       <c r="N2" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>62.4</v>
+        <v>150</v>
       </c>
       <c r="P2" t="n">
-        <v>54.6</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>46.8</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>18.2</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>40.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1810,34 +1810,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.4</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37.05311702887473</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>80.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>57.2</v>
+        <v>150</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>38.23079277624769</v>
       </c>
       <c r="P3" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>31.2</v>
+        <v>150</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1890,31 +1890,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.4</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>41.6</v>
+        <v>40</v>
       </c>
       <c r="L4" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>37.38312417100297</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>72.8</v>
+        <v>105.3831241710018</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R4" t="n">
-        <v>10.4</v>
+        <v>30</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2087,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>9.048519999999897</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>31.2</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>117</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>130</v>
@@ -2360,76 +2360,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>189.4909090909091</v>
+        <v>179.0909090909106</v>
       </c>
       <c r="C2" t="n">
-        <v>169.7939393939394</v>
+        <v>159.3939393939416</v>
       </c>
       <c r="D2" t="n">
-        <v>156.6626262626262</v>
+        <v>146.2626262626277</v>
       </c>
       <c r="E2" t="n">
-        <v>143.5313131313131</v>
+        <v>133.1313131313139</v>
       </c>
       <c r="F2" t="n">
-        <v>130.4</v>
+        <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>143.27</v>
+        <v>170.193</v>
       </c>
       <c r="H2" t="n">
-        <v>171.584</v>
+        <v>196.428</v>
       </c>
       <c r="I2" t="n">
-        <v>192.176</v>
+        <v>196.428</v>
       </c>
       <c r="J2" t="n">
-        <v>215.3419999999998</v>
+        <v>196.428</v>
       </c>
       <c r="K2" t="n">
-        <v>261.6739999999998</v>
+        <v>196.428</v>
       </c>
       <c r="L2" t="n">
-        <v>323.45</v>
+        <v>230.6169292929305</v>
       </c>
       <c r="M2" t="n">
-        <v>392.9479999999998</v>
+        <v>379.1169292929305</v>
       </c>
       <c r="N2" t="n">
-        <v>470.1679999999998</v>
+        <v>379.1169292929305</v>
       </c>
       <c r="O2" t="n">
-        <v>531.9439999999997</v>
+        <v>527.6169292929305</v>
       </c>
       <c r="P2" t="n">
-        <v>585.9979999999997</v>
+        <v>527.6169292929305</v>
       </c>
       <c r="Q2" t="n">
-        <v>632.3299999999997</v>
+        <v>527.6169292929305</v>
       </c>
       <c r="R2" t="n">
-        <v>650.3479999999997</v>
+        <v>527.6169292929305</v>
       </c>
       <c r="S2" t="n">
-        <v>641.2080808080807</v>
+        <v>567.6129292929305</v>
       </c>
       <c r="T2" t="n">
-        <v>609.6929292929292</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="U2" t="n">
-        <v>491.5111111111111</v>
+        <v>481.1111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>393.0262626262626</v>
+        <v>382.6262626262645</v>
       </c>
       <c r="W2" t="n">
-        <v>314.2383838383839</v>
+        <v>303.838383838385</v>
       </c>
       <c r="X2" t="n">
-        <v>261.7131313131313</v>
+        <v>251.3131313131332</v>
       </c>
       <c r="Y2" t="n">
-        <v>222.3191919191919</v>
+        <v>211.9191919191934</v>
       </c>
     </row>
     <row r="3">
@@ -2437,76 +2437,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>182.9252525252525</v>
+        <v>172.5252525252518</v>
       </c>
       <c r="C3" t="n">
-        <v>163.2282828282828</v>
+        <v>152.8282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>150.0969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E3" t="n">
-        <v>150.0969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F3" t="n">
-        <v>150.0969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G3" t="n">
-        <v>130.4</v>
+        <v>120</v>
       </c>
       <c r="H3" t="n">
-        <v>130.4</v>
+        <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>171.584</v>
+        <v>120</v>
       </c>
       <c r="J3" t="n">
-        <v>233.36</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>233.36</v>
+        <v>120</v>
       </c>
       <c r="L3" t="n">
-        <v>270.042585858586</v>
+        <v>120</v>
       </c>
       <c r="M3" t="n">
-        <v>349.836585858586</v>
+        <v>120</v>
       </c>
       <c r="N3" t="n">
-        <v>406.464585858586</v>
+        <v>268.5</v>
       </c>
       <c r="O3" t="n">
-        <v>406.464585858586</v>
+        <v>306.3484848484852</v>
       </c>
       <c r="P3" t="n">
-        <v>429.630585858586</v>
+        <v>306.3484848484852</v>
       </c>
       <c r="Q3" t="n">
-        <v>455.370585858586</v>
+        <v>306.3484848484852</v>
       </c>
       <c r="R3" t="n">
-        <v>486.2585858585859</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="S3" t="n">
-        <v>465.2484848484849</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="T3" t="n">
-        <v>333.9353535353536</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="U3" t="n">
-        <v>333.9353535353536</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="V3" t="n">
-        <v>333.9353535353536</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="W3" t="n">
-        <v>255.1474747474747</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="X3" t="n">
-        <v>255.1474747474747</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="Y3" t="n">
-        <v>215.7535353535353</v>
+        <v>205.3535353535346</v>
       </c>
     </row>
     <row r="4">
@@ -2514,76 +2514,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>169.7939393939394</v>
+        <v>159.3939393939379</v>
       </c>
       <c r="C4" t="n">
-        <v>150.0969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="D4" t="n">
-        <v>150.0969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E4" t="n">
-        <v>150.0969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F4" t="n">
-        <v>150.0969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G4" t="n">
-        <v>130.4</v>
+        <v>120</v>
       </c>
       <c r="H4" t="n">
-        <v>130.4</v>
+        <v>120</v>
       </c>
       <c r="I4" t="n">
-        <v>130.4</v>
+        <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>140.696</v>
+        <v>149.7</v>
       </c>
       <c r="K4" t="n">
-        <v>181.88</v>
+        <v>189.3</v>
       </c>
       <c r="L4" t="n">
-        <v>253.952</v>
+        <v>189.3</v>
       </c>
       <c r="M4" t="n">
-        <v>253.952</v>
+        <v>189.3</v>
       </c>
       <c r="N4" t="n">
-        <v>290.9612929292929</v>
+        <v>189.3</v>
       </c>
       <c r="O4" t="n">
-        <v>363.0332929292929</v>
+        <v>293.6292929292918</v>
       </c>
       <c r="P4" t="n">
-        <v>363.0332929292929</v>
+        <v>293.6292929292918</v>
       </c>
       <c r="Q4" t="n">
-        <v>363.0332929292929</v>
+        <v>333.2292929292918</v>
       </c>
       <c r="R4" t="n">
-        <v>373.3292929292929</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="S4" t="n">
-        <v>373.3292929292929</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="T4" t="n">
-        <v>242.0161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="U4" t="n">
-        <v>242.0161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="V4" t="n">
-        <v>242.0161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="W4" t="n">
-        <v>242.0161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="X4" t="n">
-        <v>242.0161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="Y4" t="n">
-        <v>202.6222222222222</v>
+        <v>192.2222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3059,10 +3059,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.351480000000105</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3121,19 +3121,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>38.23079277624769</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -3347,46 +3347,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>55.33427201306116</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>88.8</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>33.8</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -3457,10 +3457,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>18.4</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3510,10 +3510,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3671,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>38.8</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -3689,13 +3689,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>173.4</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -3707,10 +3707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>53.6</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3849,16 +3849,16 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>105.3831241710018</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 7.xlsx
+++ b/model/Output Files/Year 7.xlsx
@@ -20,6 +20,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1295,6 +1296,330 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="G2" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>291.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>327</v>
+      </c>
+      <c r="J2" t="n">
+        <v>388.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>502</v>
+      </c>
+      <c r="L2" t="n">
+        <v>596</v>
+      </c>
+      <c r="M2" t="n">
+        <v>670.5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>745</v>
+      </c>
+      <c r="O2" t="n">
+        <v>651</v>
+      </c>
+      <c r="P2" t="n">
+        <v>576.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>502</v>
+      </c>
+      <c r="R2" t="n">
+        <v>320.5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>139</v>
+      </c>
+      <c r="T2" t="n">
+        <v>32</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-117</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-97.5</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-78</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-52</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>324</v>
+      </c>
+      <c r="J3" t="n">
+        <v>486</v>
+      </c>
+      <c r="K3" t="n">
+        <v>648</v>
+      </c>
+      <c r="L3" t="n">
+        <v>729</v>
+      </c>
+      <c r="M3" t="n">
+        <v>751.5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>583</v>
+      </c>
+      <c r="O3" t="n">
+        <v>567</v>
+      </c>
+      <c r="P3" t="n">
+        <v>333.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>340</v>
+      </c>
+      <c r="R3" t="n">
+        <v>243</v>
+      </c>
+      <c r="S3" t="n">
+        <v>57.99999999999999</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-130</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-78</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>81</v>
+      </c>
+      <c r="K4" t="n">
+        <v>324</v>
+      </c>
+      <c r="L4" t="n">
+        <v>567</v>
+      </c>
+      <c r="M4" t="n">
+        <v>589.5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>648</v>
+      </c>
+      <c r="O4" t="n">
+        <v>567</v>
+      </c>
+      <c r="P4" t="n">
+        <v>324</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>162</v>
+      </c>
+      <c r="R4" t="n">
+        <v>81</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-130</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/model/Output Files/Year 7.xlsx
+++ b/model/Output Files/Year 7.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.66797673708</v>
+        <v>77388.66797673712</v>
       </c>
       <c r="C2" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="D2" t="n">
-        <v>7066.221906540153</v>
+        <v>9992.976702785441</v>
       </c>
       <c r="E2" t="n">
-        <v>900</v>
+        <v>1770</v>
       </c>
       <c r="F2" t="n">
-        <v>33341.57337214539</v>
+        <v>30645.8493508404</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,13 +1216,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
         <v>150</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>10.38312417100186</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -2052,46 +2052,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>50.7</v>
+        <v>64.3</v>
       </c>
       <c r="H2" t="n">
-        <v>26.5</v>
+        <v>14.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>60.3</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="L2" t="n">
-        <v>34.53427201306115</v>
+        <v>33.6</v>
       </c>
       <c r="M2" t="n">
-        <v>150</v>
+        <v>58.23427201306106</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="O2" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>25.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>48.9</v>
       </c>
       <c r="S2" t="n">
-        <v>40.4</v>
+        <v>60.8</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>44.6</v>
       </c>
       <c r="N3" t="n">
-        <v>150</v>
+        <v>28.4</v>
       </c>
       <c r="O3" t="n">
-        <v>38.23079277624769</v>
+        <v>47.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R3" t="n">
-        <v>150</v>
+        <v>20.63079277624766</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>40</v>
+        <v>27.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O4" t="n">
-        <v>105.3831241710018</v>
+        <v>47.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>40</v>
+        <v>10.38312417100186</v>
       </c>
       <c r="R4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2700,43 +2700,43 @@
         <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>170.193</v>
+        <v>183.657</v>
       </c>
       <c r="H2" t="n">
-        <v>196.428</v>
+        <v>197.715</v>
       </c>
       <c r="I2" t="n">
-        <v>196.428</v>
+        <v>200.487</v>
       </c>
       <c r="J2" t="n">
-        <v>196.428</v>
+        <v>260.184</v>
       </c>
       <c r="K2" t="n">
-        <v>196.428</v>
+        <v>281.568</v>
       </c>
       <c r="L2" t="n">
-        <v>230.6169292929305</v>
+        <v>314.832</v>
       </c>
       <c r="M2" t="n">
-        <v>379.1169292929305</v>
+        <v>372.4839292929304</v>
       </c>
       <c r="N2" t="n">
-        <v>379.1169292929305</v>
+        <v>414.0639292929304</v>
       </c>
       <c r="O2" t="n">
-        <v>527.6169292929305</v>
+        <v>443.7639292929304</v>
       </c>
       <c r="P2" t="n">
-        <v>527.6169292929305</v>
+        <v>469.3059292929304</v>
       </c>
       <c r="Q2" t="n">
-        <v>527.6169292929305</v>
+        <v>490.6899292929305</v>
       </c>
       <c r="R2" t="n">
-        <v>527.6169292929305</v>
+        <v>539.1009292929305</v>
       </c>
       <c r="S2" t="n">
-        <v>567.6129292929305</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="T2" t="n">
         <v>599.2929292929305</v>
@@ -2783,31 +2783,31 @@
         <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>120</v>
+        <v>146.928</v>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>187.32</v>
       </c>
       <c r="K3" t="n">
-        <v>120</v>
+        <v>241.176</v>
       </c>
       <c r="L3" t="n">
-        <v>120</v>
+        <v>301.764</v>
       </c>
       <c r="M3" t="n">
-        <v>120</v>
+        <v>345.918</v>
       </c>
       <c r="N3" t="n">
-        <v>268.5</v>
+        <v>374.034</v>
       </c>
       <c r="O3" t="n">
-        <v>306.3484848484852</v>
+        <v>421.158</v>
       </c>
       <c r="P3" t="n">
-        <v>306.3484848484852</v>
+        <v>426.504</v>
       </c>
       <c r="Q3" t="n">
-        <v>306.3484848484852</v>
+        <v>434.424</v>
       </c>
       <c r="R3" t="n">
         <v>454.8484848484852</v>
@@ -2863,28 +2863,28 @@
         <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>149.7</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>189.3</v>
+        <v>146.928</v>
       </c>
       <c r="L4" t="n">
-        <v>189.3</v>
+        <v>194.052</v>
       </c>
       <c r="M4" t="n">
-        <v>189.3</v>
+        <v>224.742</v>
       </c>
       <c r="N4" t="n">
-        <v>189.3</v>
+        <v>278.598</v>
       </c>
       <c r="O4" t="n">
-        <v>293.6292929292918</v>
+        <v>325.722</v>
       </c>
       <c r="P4" t="n">
-        <v>293.6292929292918</v>
+        <v>352.65</v>
       </c>
       <c r="Q4" t="n">
-        <v>333.2292929292918</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="R4" t="n">
         <v>362.9292929292918</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>20.43427201306106</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3446,19 +3446,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>38.23079277624769</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>120</v>
+        <v>0.2307927762476404</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -3675,43 +3675,43 @@
         <v>19.7</v>
       </c>
       <c r="H2" t="n">
-        <v>39.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>31.2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>39</v>
+        <v>58.5</v>
       </c>
       <c r="K2" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>55.33427201306116</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>88.8</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>33.8</v>
+        <v>48.7</v>
       </c>
       <c r="S2" t="n">
         <v>28.4</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>6.4</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>18.4</v>
@@ -3835,10 +3835,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -3859,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -4014,13 +4014,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>173.4</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>92.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>23.2</v>
+        <v>9.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -4174,16 +4174,16 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>105.3831241710018</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 7.xlsx
+++ b/model/Output Files/Year 7.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.6679767371</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>9992.976702785438</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1770</v>
+        <v>150</v>
       </c>
       <c r="F2" t="n">
-        <v>30645.84935084039</v>
+        <v>-72.24876163362046</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,13 +1216,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1236,7 +1236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1245,50 +1245,30 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Type 3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Type 4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Type 5</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -1296,249 +1276,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
-      </c>
-      <c r="G2" t="n">
-        <v>15</v>
-      </c>
-      <c r="H2" t="n">
-        <v>15</v>
-      </c>
-      <c r="I2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J2" t="n">
-        <v>15</v>
-      </c>
-      <c r="K2" t="n">
-        <v>15</v>
-      </c>
-      <c r="L2" t="n">
-        <v>15</v>
-      </c>
-      <c r="M2" t="n">
-        <v>15</v>
-      </c>
-      <c r="N2" t="n">
-        <v>15</v>
-      </c>
-      <c r="O2" t="n">
-        <v>15</v>
-      </c>
-      <c r="P2" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>34</v>
-      </c>
-      <c r="C3" t="n">
-        <v>34</v>
-      </c>
-      <c r="D3" t="n">
-        <v>34</v>
-      </c>
-      <c r="E3" t="n">
-        <v>34</v>
-      </c>
-      <c r="F3" t="n">
-        <v>34</v>
-      </c>
-      <c r="G3" t="n">
-        <v>34</v>
-      </c>
-      <c r="H3" t="n">
-        <v>34</v>
-      </c>
-      <c r="I3" t="n">
-        <v>34</v>
-      </c>
-      <c r="J3" t="n">
-        <v>34</v>
-      </c>
-      <c r="K3" t="n">
-        <v>34</v>
-      </c>
-      <c r="L3" t="n">
-        <v>34</v>
-      </c>
-      <c r="M3" t="n">
-        <v>34</v>
-      </c>
-      <c r="N3" t="n">
-        <v>34</v>
-      </c>
-      <c r="O3" t="n">
-        <v>34</v>
-      </c>
-      <c r="P3" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11</v>
-      </c>
-      <c r="F6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G6" t="n">
-        <v>11</v>
-      </c>
-      <c r="H6" t="n">
-        <v>11</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>11</v>
-      </c>
-      <c r="K6" t="n">
-        <v>11</v>
-      </c>
-      <c r="L6" t="n">
-        <v>11</v>
-      </c>
-      <c r="M6" t="n">
-        <v>11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O6" t="n">
-        <v>11</v>
-      </c>
-      <c r="P6" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1639,76 +1389,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>142.5</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>291.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>388.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>596</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>670.5</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>745</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>651</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>576.5</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>320.5</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>-117</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>-97.5</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>-78</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>-52</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1716,13 +1466,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1731,46 +1481,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>486</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>648</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>729</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>751.5</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>583</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>333.5</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>57.99999999999999</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>-130</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1779,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>-78</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1793,10 +1543,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1808,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1817,37 +1567,37 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>589.5</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>648</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-130</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1862,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1978,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>40.8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>61.2</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>61.2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>20.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2061,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>40.8</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>61.2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2144,28 +1894,28 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>37.58312417100174</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2302,46 +2052,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>53.7</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>115.8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>33.6</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>37.8</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>109.834272013061</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>25.8</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2385,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>40.8</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>61.2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>44.6</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>28.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47.83079277624771</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2468,28 +2218,28 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>37.58312417100174</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2611,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2668,19 +2418,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>97.5</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2688,13 +2438,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2703,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2742,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2751,13 +2501,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2765,10 +2515,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2780,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2819,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2834,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2935,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>179.0909090909106</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>159.3939393939416</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>146.2626262626277</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>133.1313131313139</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>125.742</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>178.905</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>181.677</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>296.319</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>317.703</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>350.967</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>388.389</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>429.969</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>538.7049292929304</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>564.2469292929304</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>585.6309292929304</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>585.8289292929304</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>585.8289292929304</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>599.2929292929305</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>481.1111111111111</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>382.6262626262645</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>303.838383838385</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>251.3131313131332</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>211.9191919191934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3012,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>317.6767676767665</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>297.9797979797976</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>284.8484848484837</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>284.8484848484837</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>284.8484848484837</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>265.1515151515148</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>265.1515151515148</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>292.0795151515148</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>332.4715151515148</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>386.3275151515148</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>446.9155151515148</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>491.0695151515148</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>519.1855151515148</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>566.538</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>571.884</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>579.804</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>468.6868686868687</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>468.6868686868687</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>468.6868686868687</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>389.8989898989892</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>389.8989898989892</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>350.5050505050494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3089,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>396.4646464646461</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>376.7676767676771</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.7676767676771</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>376.7676767676771</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>376.7676767676771</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>357.0707070707082</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>357.0707070707082</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>357.0707070707082</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>357.0707070707082</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>383.9987070707082</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>431.1227070707082</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>461.8127070707082</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>515.6687070707083</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>552.876</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>579.804</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>593.268</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>468.6868686868687</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>468.6868686868687</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>468.6868686868687</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>468.6868686868687</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>468.6868686868687</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>429.2929292929289</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3634,10 +3384,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>21.2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3699,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2307927762477177</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -3711,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3925,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>39.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3946,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>79.83427201306101</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -3961,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4035,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>18.4</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4255,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>

--- a/model/Output Files/Year 7.xlsx
+++ b/model/Output Files/Year 7.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>77388.66797673712</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>9992.976702785441</v>
       </c>
       <c r="E2" t="n">
-        <v>150</v>
+        <v>1770</v>
       </c>
       <c r="F2" t="n">
-        <v>-72.24876163362046</v>
+        <v>30645.8493508404</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,13 +1216,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1276,19 +1276,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1389,76 +1389,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-32.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>142.5</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>291.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>388.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>596</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>670.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>745</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>651</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>576.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>320.5</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>-117</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>-97.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>-78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>-52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="3">
@@ -1466,13 +1466,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-32.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1481,46 +1481,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>729</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>751.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>333.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>-130</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>-78</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="4">
@@ -1543,10 +1543,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-32.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1567,37 +1567,37 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>589.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>-130</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>-39</v>
       </c>
     </row>
   </sheetData>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>10.38312417100186</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -2052,43 +2052,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>64.3</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>14.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>60.3</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>33.6</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>58.23427201306106</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>25.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>48.9</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>60.8</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>44.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.63079277624766</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2218,25 +2218,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>10.38312417100186</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2418,19 +2418,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -2438,13 +2438,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2492,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2501,13 +2501,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -2515,10 +2515,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2685,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>179.0909090909106</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>159.3939393939416</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>146.2626262626277</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>133.1313131313139</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>183.657</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>197.715</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>200.487</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>260.184</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>281.568</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>314.832</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>372.4839292929304</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>414.0639292929304</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>443.7639292929304</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>469.3059292929304</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>490.6899292929305</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>539.1009292929305</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>481.1111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>382.6262626262645</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>303.838383838385</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>251.3131313131332</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>211.9191919191934</v>
       </c>
     </row>
     <row r="3">
@@ -2762,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>172.5252525252518</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>152.8282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>146.928</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>187.32</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>241.176</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>301.764</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>345.918</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>374.034</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>421.158</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>426.504</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>434.424</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.3535353535346</v>
       </c>
     </row>
     <row r="4">
@@ -2839,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>159.3939393939379</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>146.928</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>194.052</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>224.742</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>278.598</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>325.722</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>352.65</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>192.2222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>20.43427201306106</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -3458,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.2307927762476404</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>58.5</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3705,13 +3705,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>48.7</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>18.4</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3996,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>38.8</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -4032,10 +4032,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>53.6</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>

--- a/model/Output Files/Year 7.xlsx
+++ b/model/Output Files/Year 7.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.66797673712</v>
+        <v>77388.66797673707</v>
       </c>
       <c r="C2" t="n">
         <v>2000</v>
       </c>
       <c r="D2" t="n">
-        <v>9992.976702785441</v>
+        <v>14091.39863177228</v>
       </c>
       <c r="E2" t="n">
-        <v>1770</v>
+        <v>900</v>
       </c>
       <c r="F2" t="n">
-        <v>30645.8493508404</v>
+        <v>29090.85277483963</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.6</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>40.8</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="M2" t="n">
-        <v>61.2</v>
+        <v>9</v>
       </c>
       <c r="N2" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>61.2</v>
+        <v>9</v>
       </c>
       <c r="P2" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="Q2" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="R2" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="S2" t="n">
-        <v>20.4</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>13.6</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>40.8</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>61.2</v>
+        <v>9</v>
       </c>
       <c r="M3" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="N3" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="P3" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="R3" t="n">
-        <v>20.4</v>
+        <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>13.6</v>
+        <v>2</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1891,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="N4" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="P4" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.38312417100186</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,46 +2052,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>64.3</v>
+        <v>52.7</v>
       </c>
       <c r="H2" t="n">
-        <v>14.2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>60.3</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>33.6</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>58.23427201306106</v>
+        <v>150</v>
       </c>
       <c r="N2" t="n">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="O2" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>25.8</v>
+        <v>115.434272013061</v>
       </c>
       <c r="Q2" t="n">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>48.9</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>60.8</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27.2</v>
+        <v>104.9307927762477</v>
       </c>
       <c r="J3" t="n">
-        <v>40.8</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>61.2</v>
+        <v>9</v>
       </c>
       <c r="M3" t="n">
-        <v>44.6</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>28.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="P3" t="n">
-        <v>5.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="R3" t="n">
-        <v>20.63079277624766</v>
+        <v>150</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K4" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>47.6</v>
+        <v>150</v>
       </c>
       <c r="P4" t="n">
-        <v>27.2</v>
+        <v>52.38312417100179</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.38312417100186</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2700,43 +2700,43 @@
         <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>183.657</v>
+        <v>172.173</v>
       </c>
       <c r="H2" t="n">
-        <v>197.715</v>
+        <v>172.173</v>
       </c>
       <c r="I2" t="n">
-        <v>200.487</v>
+        <v>172.173</v>
       </c>
       <c r="J2" t="n">
-        <v>260.184</v>
+        <v>172.173</v>
       </c>
       <c r="K2" t="n">
-        <v>281.568</v>
+        <v>172.173</v>
       </c>
       <c r="L2" t="n">
-        <v>314.832</v>
+        <v>172.173</v>
       </c>
       <c r="M2" t="n">
-        <v>372.4839292929304</v>
+        <v>320.673</v>
       </c>
       <c r="N2" t="n">
-        <v>414.0639292929304</v>
+        <v>469.173</v>
       </c>
       <c r="O2" t="n">
-        <v>443.7639292929304</v>
+        <v>469.173</v>
       </c>
       <c r="P2" t="n">
-        <v>469.3059292929304</v>
+        <v>583.4529292929304</v>
       </c>
       <c r="Q2" t="n">
-        <v>490.6899292929305</v>
+        <v>583.4529292929304</v>
       </c>
       <c r="R2" t="n">
-        <v>539.1009292929305</v>
+        <v>583.4529292929304</v>
       </c>
       <c r="S2" t="n">
-        <v>599.2929292929305</v>
+        <v>583.4529292929304</v>
       </c>
       <c r="T2" t="n">
         <v>599.2929292929305</v>
@@ -2783,31 +2783,31 @@
         <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>146.928</v>
+        <v>223.8814848484852</v>
       </c>
       <c r="J3" t="n">
-        <v>187.32</v>
+        <v>229.8214848484852</v>
       </c>
       <c r="K3" t="n">
-        <v>241.176</v>
+        <v>237.7414848484852</v>
       </c>
       <c r="L3" t="n">
-        <v>301.764</v>
+        <v>246.6514848484852</v>
       </c>
       <c r="M3" t="n">
-        <v>345.918</v>
+        <v>246.6514848484852</v>
       </c>
       <c r="N3" t="n">
-        <v>374.034</v>
+        <v>246.6514848484852</v>
       </c>
       <c r="O3" t="n">
-        <v>421.158</v>
+        <v>253.5814848484852</v>
       </c>
       <c r="P3" t="n">
-        <v>426.504</v>
+        <v>278.6284848484852</v>
       </c>
       <c r="Q3" t="n">
-        <v>434.424</v>
+        <v>306.3484848484852</v>
       </c>
       <c r="R3" t="n">
         <v>454.8484848484852</v>
@@ -2863,28 +2863,28 @@
         <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>140.79</v>
       </c>
       <c r="K4" t="n">
-        <v>146.928</v>
+        <v>144.75</v>
       </c>
       <c r="L4" t="n">
-        <v>194.052</v>
+        <v>151.68</v>
       </c>
       <c r="M4" t="n">
-        <v>224.742</v>
+        <v>151.68</v>
       </c>
       <c r="N4" t="n">
-        <v>278.598</v>
+        <v>159.6</v>
       </c>
       <c r="O4" t="n">
-        <v>325.722</v>
+        <v>308.1</v>
       </c>
       <c r="P4" t="n">
-        <v>352.65</v>
+        <v>359.9592929292918</v>
       </c>
       <c r="Q4" t="n">
-        <v>362.9292929292918</v>
+        <v>361.9392929292918</v>
       </c>
       <c r="R4" t="n">
         <v>362.9292929292918</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>20.43427201306106</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3458,10 +3458,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2307927762476404</v>
+        <v>147</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>21.2</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3526,10 +3526,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>48.38312417100179</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -3675,19 +3675,19 @@
         <v>19.7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>26.2</v>
       </c>
       <c r="J2" t="n">
-        <v>58.5</v>
+        <v>33</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>12.8</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3699,19 +3699,19 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>48.7</v>
+        <v>28.8</v>
       </c>
       <c r="S2" t="n">
         <v>28.4</v>
       </c>
       <c r="T2" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20.93079277624769</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -3770,16 +3770,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>48.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -4008,31 +4008,31 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>164.4</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>22.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>57.13427201306104</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>53.6</v>
+        <v>10.2</v>
       </c>
       <c r="T2" t="n">
         <v>32</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -4091,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>13.4</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 7.xlsx
+++ b/model/Output Files/Year 7.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.66797673707</v>
+        <v>80569.8755514744</v>
       </c>
       <c r="C2" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="D2" t="n">
-        <v>14091.39863177228</v>
+        <v>15404.58112947659</v>
       </c>
       <c r="E2" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F2" t="n">
-        <v>29090.85277483963</v>
+        <v>29990.60276494745</v>
       </c>
     </row>
   </sheetData>
@@ -1216,13 +1216,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1404,46 +1404,46 @@
         <v>-13</v>
       </c>
       <c r="G2" t="n">
-        <v>142.5</v>
+        <v>22.1</v>
       </c>
       <c r="H2" t="n">
-        <v>291.5</v>
+        <v>50.7</v>
       </c>
       <c r="I2" t="n">
-        <v>327</v>
+        <v>26</v>
       </c>
       <c r="J2" t="n">
-        <v>388.5</v>
+        <v>27.3</v>
       </c>
       <c r="K2" t="n">
-        <v>502</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>596</v>
+        <v>114.4</v>
       </c>
       <c r="M2" t="n">
-        <v>670.5</v>
+        <v>128.7</v>
       </c>
       <c r="N2" t="n">
-        <v>745</v>
+        <v>143</v>
       </c>
       <c r="O2" t="n">
-        <v>651</v>
+        <v>109.2</v>
       </c>
       <c r="P2" t="n">
-        <v>576.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>502</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>320.5</v>
+        <v>19.5</v>
       </c>
       <c r="S2" t="n">
-        <v>139</v>
+        <v>-41.60000000000001</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>-88.40000000000001</v>
       </c>
       <c r="U2" t="n">
         <v>-117</v>
@@ -1487,37 +1487,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>324</v>
+        <v>83.2</v>
       </c>
       <c r="J3" t="n">
-        <v>486</v>
+        <v>124.8</v>
       </c>
       <c r="K3" t="n">
-        <v>648</v>
+        <v>166.4</v>
       </c>
       <c r="L3" t="n">
-        <v>729</v>
+        <v>187.2</v>
       </c>
       <c r="M3" t="n">
-        <v>751.5</v>
+        <v>149.5</v>
       </c>
       <c r="N3" t="n">
-        <v>583</v>
+        <v>101.4</v>
       </c>
       <c r="O3" t="n">
-        <v>567</v>
+        <v>145.6</v>
       </c>
       <c r="P3" t="n">
-        <v>333.5</v>
+        <v>32.49999999999999</v>
       </c>
       <c r="Q3" t="n">
-        <v>340</v>
+        <v>39</v>
       </c>
       <c r="R3" t="n">
-        <v>243</v>
+        <v>62.4</v>
       </c>
       <c r="S3" t="n">
-        <v>57.99999999999999</v>
+        <v>-62.40000000000001</v>
       </c>
       <c r="T3" t="n">
         <v>-130</v>
@@ -1567,31 +1567,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>81</v>
+        <v>20.8</v>
       </c>
       <c r="K4" t="n">
-        <v>324</v>
+        <v>83.2</v>
       </c>
       <c r="L4" t="n">
-        <v>567</v>
+        <v>145.6</v>
       </c>
       <c r="M4" t="n">
-        <v>589.5</v>
+        <v>107.9</v>
       </c>
       <c r="N4" t="n">
-        <v>648</v>
+        <v>166.4</v>
       </c>
       <c r="O4" t="n">
-        <v>567</v>
+        <v>145.6</v>
       </c>
       <c r="P4" t="n">
-        <v>324</v>
+        <v>83.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>162</v>
+        <v>41.6</v>
       </c>
       <c r="R4" t="n">
-        <v>81</v>
+        <v>20.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,46 +2052,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>52.7</v>
+        <v>24.1</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>54.7</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>150</v>
+        <v>150.6722783389462</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>118.2</v>
       </c>
       <c r="P2" t="n">
-        <v>115.434272013061</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>24.5</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2135,16 +2135,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>104.9307927762477</v>
+        <v>19.2</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>36.75715743291538</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>171</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -2153,16 +2153,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="P3" t="n">
-        <v>25.3</v>
+        <v>37.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="R3" t="n">
-        <v>150</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
+        <v>152</v>
+      </c>
+      <c r="O4" t="n">
+        <v>14</v>
+      </c>
+      <c r="P4" t="n">
         <v>8</v>
       </c>
-      <c r="O4" t="n">
-        <v>150</v>
-      </c>
-      <c r="P4" t="n">
-        <v>52.38312417100179</v>
-      </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>8.583124171001877</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>21.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>38.6</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="U2" t="n">
         <v>117</v>
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>60.4</v>
       </c>
       <c r="T3" t="n">
         <v>130</v>
@@ -2685,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>179.0909090909106</v>
+        <v>211.0909090909106</v>
       </c>
       <c r="C2" t="n">
-        <v>159.3939393939416</v>
+        <v>191.3939393939416</v>
       </c>
       <c r="D2" t="n">
-        <v>146.2626262626277</v>
+        <v>178.2626262626277</v>
       </c>
       <c r="E2" t="n">
-        <v>133.1313131313139</v>
+        <v>165.1313131313139</v>
       </c>
       <c r="F2" t="n">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="G2" t="n">
-        <v>172.173</v>
+        <v>175.859</v>
       </c>
       <c r="H2" t="n">
-        <v>172.173</v>
+        <v>230.012</v>
       </c>
       <c r="I2" t="n">
-        <v>172.173</v>
+        <v>260.702</v>
       </c>
       <c r="J2" t="n">
-        <v>172.173</v>
+        <v>293.669</v>
       </c>
       <c r="K2" t="n">
-        <v>172.173</v>
+        <v>380.393</v>
       </c>
       <c r="L2" t="n">
-        <v>172.173</v>
+        <v>380.393</v>
       </c>
       <c r="M2" t="n">
-        <v>320.673</v>
+        <v>380.393</v>
       </c>
       <c r="N2" t="n">
-        <v>469.173</v>
+        <v>529.5585555555567</v>
       </c>
       <c r="O2" t="n">
-        <v>469.173</v>
+        <v>646.5765555555568</v>
       </c>
       <c r="P2" t="n">
-        <v>583.4529292929304</v>
+        <v>646.5765555555568</v>
       </c>
       <c r="Q2" t="n">
-        <v>583.4529292929304</v>
+        <v>733.3005555555567</v>
       </c>
       <c r="R2" t="n">
-        <v>583.4529292929304</v>
+        <v>757.5555555555555</v>
       </c>
       <c r="S2" t="n">
-        <v>583.4529292929304</v>
+        <v>718.5656565656577</v>
       </c>
       <c r="T2" t="n">
-        <v>599.2929292929305</v>
+        <v>631.2929292929305</v>
       </c>
       <c r="U2" t="n">
-        <v>481.1111111111111</v>
+        <v>513.1111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>382.6262626262645</v>
+        <v>414.6262626262645</v>
       </c>
       <c r="W2" t="n">
-        <v>303.838383838385</v>
+        <v>335.838383838385</v>
       </c>
       <c r="X2" t="n">
-        <v>251.3131313131332</v>
+        <v>283.3131313131332</v>
       </c>
       <c r="Y2" t="n">
-        <v>211.9191919191934</v>
+        <v>243.9191919191934</v>
       </c>
     </row>
     <row r="3">
@@ -2762,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>172.5252525252518</v>
+        <v>204.5252525252518</v>
       </c>
       <c r="C3" t="n">
-        <v>152.8282828282828</v>
+        <v>184.8282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>139.6969696969689</v>
+        <v>171.6969696969689</v>
       </c>
       <c r="E3" t="n">
-        <v>139.6969696969689</v>
+        <v>171.6969696969689</v>
       </c>
       <c r="F3" t="n">
-        <v>139.6969696969689</v>
+        <v>171.6969696969689</v>
       </c>
       <c r="G3" t="n">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="H3" t="n">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="I3" t="n">
-        <v>223.8814848484852</v>
+        <v>171.008</v>
       </c>
       <c r="J3" t="n">
-        <v>229.8214848484852</v>
+        <v>182.888</v>
       </c>
       <c r="K3" t="n">
-        <v>237.7414848484852</v>
+        <v>219.2775858585862</v>
       </c>
       <c r="L3" t="n">
-        <v>246.6514848484852</v>
+        <v>388.5675858585863</v>
       </c>
       <c r="M3" t="n">
-        <v>246.6514848484852</v>
+        <v>388.5675858585863</v>
       </c>
       <c r="N3" t="n">
-        <v>246.6514848484852</v>
+        <v>388.5675858585863</v>
       </c>
       <c r="O3" t="n">
-        <v>253.5814848484852</v>
+        <v>402.4275858585863</v>
       </c>
       <c r="P3" t="n">
-        <v>278.6284848484852</v>
+        <v>439.5525858585863</v>
       </c>
       <c r="Q3" t="n">
-        <v>306.3484848484852</v>
+        <v>483.1125858585863</v>
       </c>
       <c r="R3" t="n">
-        <v>454.8484848484852</v>
+        <v>547.8585858585863</v>
       </c>
       <c r="S3" t="n">
-        <v>454.8484848484852</v>
+        <v>486.8484848484852</v>
       </c>
       <c r="T3" t="n">
-        <v>323.5353535353539</v>
+        <v>355.5353535353539</v>
       </c>
       <c r="U3" t="n">
-        <v>323.5353535353539</v>
+        <v>355.5353535353539</v>
       </c>
       <c r="V3" t="n">
-        <v>323.5353535353539</v>
+        <v>355.5353535353539</v>
       </c>
       <c r="W3" t="n">
-        <v>244.7474747474744</v>
+        <v>276.7474747474744</v>
       </c>
       <c r="X3" t="n">
-        <v>244.7474747474744</v>
+        <v>276.7474747474744</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.3535353535346</v>
+        <v>237.3535353535346</v>
       </c>
     </row>
     <row r="4">
@@ -2839,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>159.3939393939379</v>
+        <v>191.3939393939379</v>
       </c>
       <c r="C4" t="n">
-        <v>139.6969696969689</v>
+        <v>171.6969696969689</v>
       </c>
       <c r="D4" t="n">
-        <v>139.6969696969689</v>
+        <v>171.6969696969689</v>
       </c>
       <c r="E4" t="n">
-        <v>139.6969696969689</v>
+        <v>171.6969696969689</v>
       </c>
       <c r="F4" t="n">
-        <v>139.6969696969689</v>
+        <v>171.6969696969689</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="H4" t="n">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="I4" t="n">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="J4" t="n">
-        <v>140.79</v>
+        <v>170.81</v>
       </c>
       <c r="K4" t="n">
-        <v>144.75</v>
+        <v>178.73</v>
       </c>
       <c r="L4" t="n">
-        <v>151.68</v>
+        <v>192.59</v>
       </c>
       <c r="M4" t="n">
-        <v>151.68</v>
+        <v>192.59</v>
       </c>
       <c r="N4" t="n">
-        <v>159.6</v>
+        <v>343.0699999999999</v>
       </c>
       <c r="O4" t="n">
-        <v>308.1</v>
+        <v>356.9299999999999</v>
       </c>
       <c r="P4" t="n">
-        <v>359.9592929292918</v>
+        <v>364.85</v>
       </c>
       <c r="Q4" t="n">
-        <v>361.9392929292918</v>
+        <v>373.3472929292918</v>
       </c>
       <c r="R4" t="n">
-        <v>362.9292929292918</v>
+        <v>394.9292929292918</v>
       </c>
       <c r="S4" t="n">
-        <v>362.9292929292918</v>
+        <v>394.9292929292918</v>
       </c>
       <c r="T4" t="n">
-        <v>231.6161616161605</v>
+        <v>263.6161616161605</v>
       </c>
       <c r="U4" t="n">
-        <v>231.6161616161605</v>
+        <v>263.6161616161605</v>
       </c>
       <c r="V4" t="n">
-        <v>231.6161616161605</v>
+        <v>263.6161616161605</v>
       </c>
       <c r="W4" t="n">
-        <v>231.6161616161605</v>
+        <v>263.6161616161605</v>
       </c>
       <c r="X4" t="n">
-        <v>231.6161616161605</v>
+        <v>263.6161616161605</v>
       </c>
       <c r="Y4" t="n">
-        <v>192.2222222222222</v>
+        <v>224.2222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3348,46 +3348,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>23.8</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>44.2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>112.2</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3440,28 +3440,28 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="R3" t="n">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="S3" t="n">
-        <v>21.2</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3523,19 +3523,19 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="O4" t="n">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>48.38312417100179</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3672,43 +3672,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>19.7</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6</v>
+      </c>
+      <c r="L2" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="N2" t="n">
         <v>9</v>
       </c>
-      <c r="I2" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J2" t="n">
-        <v>33</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="P2" t="n">
-        <v>78.90000000000001</v>
+        <v>6.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R2" t="n">
-        <v>28.8</v>
+        <v>3.7</v>
       </c>
       <c r="S2" t="n">
-        <v>28.4</v>
+        <v>1.4</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -3755,37 +3755,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.93079277624769</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="N3" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P3" t="n">
-        <v>48.9</v>
+        <v>3.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>18.4</v>
+        <v>0.4</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3835,31 +3835,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3996,46 +3996,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>38.8</v>
+        <v>4.4</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10.8</v>
       </c>
       <c r="K2" t="n">
-        <v>19</v>
+        <v>15.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="M2" t="n">
-        <v>164.4</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>166</v>
+        <v>21.67227833894623</v>
       </c>
       <c r="O2" t="n">
-        <v>22.2</v>
+        <v>20.4</v>
       </c>
       <c r="P2" t="n">
-        <v>57.13427201306104</v>
+        <v>13.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>19</v>
+        <v>15.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>10.2</v>
+        <v>2</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4079,19 +4079,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>80</v>
+        <v>11.2</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>20.75715743291538</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>13.4</v>
+        <v>4.3</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -4100,13 +4100,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>4.583124171001877</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 7.xlsx
+++ b/model/Output Files/Year 7.xlsx
@@ -525,76 +525,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>6.933761861034569</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>80569.8755514744</v>
+        <v>80459.32568105296</v>
       </c>
       <c r="C2" t="n">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>15404.58112947659</v>
+        <v>16129.88778452801</v>
       </c>
       <c r="E2" t="n">
-        <v>1100</v>
+        <v>2235</v>
       </c>
       <c r="F2" t="n">
-        <v>29990.60276494745</v>
+        <v>29908.30828239787</v>
       </c>
     </row>
   </sheetData>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,13 +1216,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>17.8</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>35.6</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>44.5</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>53.4</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>62.3</v>
       </c>
       <c r="L2" t="n">
-        <v>8</v>
+        <v>71.2</v>
       </c>
       <c r="M2" t="n">
-        <v>9</v>
+        <v>80.10000000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="O2" t="n">
-        <v>9</v>
+        <v>80.10000000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>8</v>
+        <v>71.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>7</v>
+        <v>62.3</v>
       </c>
       <c r="R2" t="n">
-        <v>5</v>
+        <v>44.5</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>26.7</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>17.8</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>53.4</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>71.2</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>80.10000000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>71.2</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>62.3</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>34.9444750535652</v>
       </c>
       <c r="Q3" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>17.8</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1891,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>1.783124171002611</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>62.3</v>
       </c>
       <c r="M4" t="n">
-        <v>8</v>
+        <v>71.2</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>71.2</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>62.3</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,40 +2052,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>24.1</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
-        <v>54.7</v>
+        <v>29.6</v>
       </c>
       <c r="I2" t="n">
-        <v>31</v>
+        <v>20.3</v>
       </c>
       <c r="J2" t="n">
-        <v>33.3</v>
+        <v>21.4</v>
       </c>
       <c r="K2" t="n">
-        <v>87.59999999999999</v>
+        <v>43.3</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>57.40000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>63.7</v>
       </c>
       <c r="N2" t="n">
-        <v>150.6722783389462</v>
+        <v>70</v>
       </c>
       <c r="O2" t="n">
-        <v>118.2</v>
+        <v>55.90000000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>49.59999999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>87.59999999999999</v>
+        <v>43.23376186103457</v>
       </c>
       <c r="R2" t="n">
-        <v>24.5</v>
+        <v>17.7</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>12</v>
+        <v>53.4</v>
       </c>
       <c r="K3" t="n">
-        <v>36.75715743291538</v>
+        <v>71.2</v>
       </c>
       <c r="L3" t="n">
-        <v>171</v>
+        <v>80.10000000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>65.60000000000036</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>45.2</v>
       </c>
       <c r="O3" t="n">
-        <v>14</v>
+        <v>62.3</v>
       </c>
       <c r="P3" t="n">
-        <v>37.5</v>
+        <v>6.344475053564832</v>
       </c>
       <c r="Q3" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>65.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>8</v>
+        <v>1.783124171002611</v>
       </c>
       <c r="L4" t="n">
-        <v>14</v>
+        <v>62.3</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>47.80000000000037</v>
       </c>
       <c r="N4" t="n">
-        <v>152</v>
+        <v>71.2</v>
       </c>
       <c r="O4" t="n">
-        <v>14</v>
+        <v>62.3</v>
       </c>
       <c r="P4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>8.583124171001877</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.5</v>
+        <v>25.5</v>
       </c>
       <c r="C2" t="n">
-        <v>19.5</v>
+        <v>12.5</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>6.000000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>6.000000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>6.000000000000001</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2412,25 +2412,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>38.6</v>
+        <v>11.3</v>
       </c>
       <c r="T2" t="n">
-        <v>86.40000000000001</v>
+        <v>63.6</v>
       </c>
       <c r="U2" t="n">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="V2" t="n">
-        <v>97.5</v>
+        <v>90.5</v>
       </c>
       <c r="W2" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="X2" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="Y2" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>60.4</v>
+        <v>44.99999999999928</v>
       </c>
       <c r="T3" t="n">
         <v>130</v>
@@ -2685,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>211.0909090909106</v>
+        <v>154.5656565656565</v>
       </c>
       <c r="C2" t="n">
-        <v>191.3939393939416</v>
+        <v>141.9393939393939</v>
       </c>
       <c r="D2" t="n">
-        <v>178.2626262626277</v>
+        <v>135.8787878787878</v>
       </c>
       <c r="E2" t="n">
-        <v>165.1313131313139</v>
+        <v>129.8181818181818</v>
       </c>
       <c r="F2" t="n">
-        <v>152</v>
+        <v>123.7575757575757</v>
       </c>
       <c r="G2" t="n">
-        <v>175.859</v>
+        <v>140.5875757575757</v>
       </c>
       <c r="H2" t="n">
-        <v>230.012</v>
+        <v>169.8915757575757</v>
       </c>
       <c r="I2" t="n">
-        <v>260.702</v>
+        <v>189.9885757575757</v>
       </c>
       <c r="J2" t="n">
-        <v>293.669</v>
+        <v>211.1745757575757</v>
       </c>
       <c r="K2" t="n">
-        <v>380.393</v>
+        <v>254.0415757575757</v>
       </c>
       <c r="L2" t="n">
-        <v>380.393</v>
+        <v>310.8675757575757</v>
       </c>
       <c r="M2" t="n">
-        <v>380.393</v>
+        <v>373.9305757575757</v>
       </c>
       <c r="N2" t="n">
-        <v>529.5585555555567</v>
+        <v>443.2305757575757</v>
       </c>
       <c r="O2" t="n">
-        <v>646.5765555555568</v>
+        <v>498.5715757575757</v>
       </c>
       <c r="P2" t="n">
-        <v>646.5765555555568</v>
+        <v>547.6755757575758</v>
       </c>
       <c r="Q2" t="n">
-        <v>733.3005555555567</v>
+        <v>590.477</v>
       </c>
       <c r="R2" t="n">
-        <v>757.5555555555555</v>
+        <v>608</v>
       </c>
       <c r="S2" t="n">
-        <v>718.5656565656577</v>
+        <v>596.5858585858585</v>
       </c>
       <c r="T2" t="n">
-        <v>631.2929292929305</v>
+        <v>532.3434343434343</v>
       </c>
       <c r="U2" t="n">
-        <v>513.1111111111111</v>
+        <v>421.2323232323232</v>
       </c>
       <c r="V2" t="n">
-        <v>414.6262626262645</v>
+        <v>329.8181818181818</v>
       </c>
       <c r="W2" t="n">
-        <v>335.838383838385</v>
+        <v>258.10101010101</v>
       </c>
       <c r="X2" t="n">
-        <v>283.3131313131332</v>
+        <v>212.6464646464646</v>
       </c>
       <c r="Y2" t="n">
-        <v>243.9191919191934</v>
+        <v>180.3232323232322</v>
       </c>
     </row>
     <row r="3">
@@ -2762,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>204.5252525252518</v>
+        <v>174.1252525252525</v>
       </c>
       <c r="C3" t="n">
-        <v>184.8282828282828</v>
+        <v>154.4282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>171.6969696969689</v>
+        <v>141.2969696969697</v>
       </c>
       <c r="E3" t="n">
-        <v>171.6969696969689</v>
+        <v>141.2969696969697</v>
       </c>
       <c r="F3" t="n">
-        <v>171.6969696969689</v>
+        <v>141.2969696969697</v>
       </c>
       <c r="G3" t="n">
-        <v>152</v>
+        <v>121.6</v>
       </c>
       <c r="H3" t="n">
-        <v>152</v>
+        <v>121.6</v>
       </c>
       <c r="I3" t="n">
-        <v>171.008</v>
+        <v>121.6</v>
       </c>
       <c r="J3" t="n">
-        <v>182.888</v>
+        <v>174.466</v>
       </c>
       <c r="K3" t="n">
-        <v>219.2775858585862</v>
+        <v>244.954</v>
       </c>
       <c r="L3" t="n">
-        <v>388.5675858585863</v>
+        <v>324.253</v>
       </c>
       <c r="M3" t="n">
-        <v>388.5675858585863</v>
+        <v>389.1970000000004</v>
       </c>
       <c r="N3" t="n">
-        <v>388.5675858585863</v>
+        <v>433.9450000000004</v>
       </c>
       <c r="O3" t="n">
-        <v>402.4275858585863</v>
+        <v>495.6220000000004</v>
       </c>
       <c r="P3" t="n">
-        <v>439.5525858585863</v>
+        <v>501.9030303030296</v>
       </c>
       <c r="Q3" t="n">
-        <v>483.1125858585863</v>
+        <v>501.9030303030296</v>
       </c>
       <c r="R3" t="n">
-        <v>547.8585858585863</v>
+        <v>501.9030303030296</v>
       </c>
       <c r="S3" t="n">
-        <v>486.8484848484852</v>
+        <v>456.4484848484849</v>
       </c>
       <c r="T3" t="n">
-        <v>355.5353535353539</v>
+        <v>325.1353535353535</v>
       </c>
       <c r="U3" t="n">
-        <v>355.5353535353539</v>
+        <v>325.1353535353535</v>
       </c>
       <c r="V3" t="n">
-        <v>355.5353535353539</v>
+        <v>325.1353535353535</v>
       </c>
       <c r="W3" t="n">
-        <v>276.7474747474744</v>
+        <v>246.3474747474748</v>
       </c>
       <c r="X3" t="n">
-        <v>276.7474747474744</v>
+        <v>246.3474747474748</v>
       </c>
       <c r="Y3" t="n">
-        <v>237.3535353535346</v>
+        <v>206.9535353535354</v>
       </c>
     </row>
     <row r="4">
@@ -2839,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>191.3939393939379</v>
+        <v>160.9939393939394</v>
       </c>
       <c r="C4" t="n">
-        <v>171.6969696969689</v>
+        <v>141.2969696969697</v>
       </c>
       <c r="D4" t="n">
-        <v>171.6969696969689</v>
+        <v>141.2969696969697</v>
       </c>
       <c r="E4" t="n">
-        <v>171.6969696969689</v>
+        <v>141.2969696969697</v>
       </c>
       <c r="F4" t="n">
-        <v>171.6969696969689</v>
+        <v>141.2969696969697</v>
       </c>
       <c r="G4" t="n">
-        <v>152</v>
+        <v>121.6</v>
       </c>
       <c r="H4" t="n">
-        <v>152</v>
+        <v>121.6</v>
       </c>
       <c r="I4" t="n">
-        <v>152</v>
+        <v>121.6</v>
       </c>
       <c r="J4" t="n">
-        <v>170.81</v>
+        <v>121.6</v>
       </c>
       <c r="K4" t="n">
-        <v>178.73</v>
+        <v>123.3652929292926</v>
       </c>
       <c r="L4" t="n">
-        <v>192.59</v>
+        <v>185.0422929292926</v>
       </c>
       <c r="M4" t="n">
-        <v>192.59</v>
+        <v>232.364292929293</v>
       </c>
       <c r="N4" t="n">
-        <v>343.0699999999999</v>
+        <v>302.852292929293</v>
       </c>
       <c r="O4" t="n">
-        <v>356.9299999999999</v>
+        <v>364.529292929293</v>
       </c>
       <c r="P4" t="n">
-        <v>364.85</v>
+        <v>364.529292929293</v>
       </c>
       <c r="Q4" t="n">
-        <v>373.3472929292918</v>
+        <v>364.529292929293</v>
       </c>
       <c r="R4" t="n">
-        <v>394.9292929292918</v>
+        <v>364.529292929293</v>
       </c>
       <c r="S4" t="n">
-        <v>394.9292929292918</v>
+        <v>364.529292929293</v>
       </c>
       <c r="T4" t="n">
-        <v>263.6161616161605</v>
+        <v>233.2161616161616</v>
       </c>
       <c r="U4" t="n">
-        <v>263.6161616161605</v>
+        <v>233.2161616161616</v>
       </c>
       <c r="V4" t="n">
-        <v>263.6161616161605</v>
+        <v>233.2161616161616</v>
       </c>
       <c r="W4" t="n">
-        <v>263.6161616161605</v>
+        <v>233.2161616161616</v>
       </c>
       <c r="X4" t="n">
-        <v>263.6161616161605</v>
+        <v>233.2161616161616</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.2222222222222</v>
+        <v>193.8222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3348,40 +3348,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>23.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44.2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>112.2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.8</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -3440,25 +3440,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3672,43 +3672,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -3755,37 +3755,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3835,31 +3835,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3996,43 +3996,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>10.8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>21.67227833894623</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.4</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>13.7</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -4079,19 +4079,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>20.75715743291538</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -4100,13 +4100,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>15.4</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.583124171001877</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 7.xlsx
+++ b/model/Output Files/Year 7.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.66797673712</v>
+        <v>77388.6679767371</v>
       </c>
       <c r="C2" t="n">
         <v>2000</v>
       </c>
       <c r="D2" t="n">
-        <v>9992.976702785441</v>
+        <v>9992.976702785438</v>
       </c>
       <c r="E2" t="n">
         <v>1770</v>
       </c>
       <c r="F2" t="n">
-        <v>30645.8493508404</v>
+        <v>30645.84935084039</v>
       </c>
     </row>
   </sheetData>
@@ -1236,7 +1236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1245,30 +1245,50 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Type 1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Type 2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Type 3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Type 4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Type 5</t>
-        </is>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="2">
@@ -1279,15 +1299,245 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H2" t="n">
+        <v>15</v>
+      </c>
+      <c r="I2" t="n">
+        <v>15</v>
+      </c>
+      <c r="J2" t="n">
+        <v>15</v>
+      </c>
+      <c r="K2" t="n">
+        <v>15</v>
+      </c>
+      <c r="L2" t="n">
+        <v>15</v>
+      </c>
+      <c r="M2" t="n">
+        <v>15</v>
+      </c>
+      <c r="N2" t="n">
+        <v>15</v>
+      </c>
+      <c r="O2" t="n">
+        <v>15</v>
+      </c>
+      <c r="P2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
         <v>34</v>
       </c>
-      <c r="D2" t="n">
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E3" t="n">
+        <v>34</v>
+      </c>
+      <c r="F3" t="n">
+        <v>34</v>
+      </c>
+      <c r="G3" t="n">
+        <v>34</v>
+      </c>
+      <c r="H3" t="n">
+        <v>34</v>
+      </c>
+      <c r="I3" t="n">
+        <v>34</v>
+      </c>
+      <c r="J3" t="n">
+        <v>34</v>
+      </c>
+      <c r="K3" t="n">
+        <v>34</v>
+      </c>
+      <c r="L3" t="n">
+        <v>34</v>
+      </c>
+      <c r="M3" t="n">
+        <v>34</v>
+      </c>
+      <c r="N3" t="n">
+        <v>34</v>
+      </c>
+      <c r="O3" t="n">
+        <v>34</v>
+      </c>
+      <c r="P3" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="F2" t="n">
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>11</v>
+      </c>
+      <c r="F6" t="n">
+        <v>11</v>
+      </c>
+      <c r="G6" t="n">
+        <v>11</v>
+      </c>
+      <c r="H6" t="n">
+        <v>11</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11</v>
+      </c>
+      <c r="J6" t="n">
+        <v>11</v>
+      </c>
+      <c r="K6" t="n">
+        <v>11</v>
+      </c>
+      <c r="L6" t="n">
+        <v>11</v>
+      </c>
+      <c r="M6" t="n">
+        <v>11</v>
+      </c>
+      <c r="N6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O6" t="n">
+        <v>11</v>
+      </c>
+      <c r="P6" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1906,16 +2156,16 @@
         <v>54.4</v>
       </c>
       <c r="O4" t="n">
-        <v>47.6</v>
+        <v>37.58312417100174</v>
       </c>
       <c r="P4" t="n">
         <v>27.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.38312417100186</v>
+        <v>13.6</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,16 +2302,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>64.3</v>
+        <v>5.8</v>
       </c>
       <c r="H2" t="n">
-        <v>14.2</v>
+        <v>53.7</v>
       </c>
       <c r="I2" t="n">
         <v>2.8</v>
       </c>
       <c r="J2" t="n">
-        <v>60.3</v>
+        <v>115.8</v>
       </c>
       <c r="K2" t="n">
         <v>21.6</v>
@@ -2070,13 +2320,13 @@
         <v>33.6</v>
       </c>
       <c r="M2" t="n">
-        <v>58.23427201306106</v>
+        <v>37.8</v>
       </c>
       <c r="N2" t="n">
         <v>42</v>
       </c>
       <c r="O2" t="n">
-        <v>30</v>
+        <v>109.834272013061</v>
       </c>
       <c r="P2" t="n">
         <v>25.8</v>
@@ -2085,13 +2335,13 @@
         <v>21.6</v>
       </c>
       <c r="R2" t="n">
-        <v>48.9</v>
+        <v>0.2</v>
       </c>
       <c r="S2" t="n">
-        <v>60.8</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2153,7 +2403,7 @@
         <v>28.4</v>
       </c>
       <c r="O3" t="n">
-        <v>47.6</v>
+        <v>47.83079277624771</v>
       </c>
       <c r="P3" t="n">
         <v>5.4</v>
@@ -2162,7 +2412,7 @@
         <v>8</v>
       </c>
       <c r="R3" t="n">
-        <v>20.63079277624766</v>
+        <v>20.4</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2230,16 +2480,16 @@
         <v>54.4</v>
       </c>
       <c r="O4" t="n">
-        <v>47.6</v>
+        <v>37.58312417100174</v>
       </c>
       <c r="P4" t="n">
         <v>27.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.38312417100186</v>
+        <v>13.6</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2700,43 +2950,43 @@
         <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>183.657</v>
+        <v>125.742</v>
       </c>
       <c r="H2" t="n">
-        <v>197.715</v>
+        <v>178.905</v>
       </c>
       <c r="I2" t="n">
-        <v>200.487</v>
+        <v>181.677</v>
       </c>
       <c r="J2" t="n">
-        <v>260.184</v>
+        <v>296.319</v>
       </c>
       <c r="K2" t="n">
-        <v>281.568</v>
+        <v>317.703</v>
       </c>
       <c r="L2" t="n">
-        <v>314.832</v>
+        <v>350.967</v>
       </c>
       <c r="M2" t="n">
-        <v>372.4839292929304</v>
+        <v>388.389</v>
       </c>
       <c r="N2" t="n">
-        <v>414.0639292929304</v>
+        <v>429.969</v>
       </c>
       <c r="O2" t="n">
-        <v>443.7639292929304</v>
+        <v>538.7049292929304</v>
       </c>
       <c r="P2" t="n">
-        <v>469.3059292929304</v>
+        <v>564.2469292929304</v>
       </c>
       <c r="Q2" t="n">
-        <v>490.6899292929305</v>
+        <v>585.6309292929304</v>
       </c>
       <c r="R2" t="n">
-        <v>539.1009292929305</v>
+        <v>585.8289292929304</v>
       </c>
       <c r="S2" t="n">
-        <v>599.2929292929305</v>
+        <v>585.8289292929304</v>
       </c>
       <c r="T2" t="n">
         <v>599.2929292929305</v>
@@ -2762,76 +3012,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>172.5252525252518</v>
+        <v>317.6767676767665</v>
       </c>
       <c r="C3" t="n">
-        <v>152.8282828282828</v>
+        <v>297.9797979797976</v>
       </c>
       <c r="D3" t="n">
-        <v>139.6969696969689</v>
+        <v>284.8484848484837</v>
       </c>
       <c r="E3" t="n">
-        <v>139.6969696969689</v>
+        <v>284.8484848484837</v>
       </c>
       <c r="F3" t="n">
-        <v>139.6969696969689</v>
+        <v>284.8484848484837</v>
       </c>
       <c r="G3" t="n">
-        <v>120</v>
+        <v>265.1515151515148</v>
       </c>
       <c r="H3" t="n">
-        <v>120</v>
+        <v>265.1515151515148</v>
       </c>
       <c r="I3" t="n">
-        <v>146.928</v>
+        <v>292.0795151515148</v>
       </c>
       <c r="J3" t="n">
-        <v>187.32</v>
+        <v>332.4715151515148</v>
       </c>
       <c r="K3" t="n">
-        <v>241.176</v>
+        <v>386.3275151515148</v>
       </c>
       <c r="L3" t="n">
-        <v>301.764</v>
+        <v>446.9155151515148</v>
       </c>
       <c r="M3" t="n">
-        <v>345.918</v>
+        <v>491.0695151515148</v>
       </c>
       <c r="N3" t="n">
-        <v>374.034</v>
+        <v>519.1855151515148</v>
       </c>
       <c r="O3" t="n">
-        <v>421.158</v>
+        <v>566.538</v>
       </c>
       <c r="P3" t="n">
-        <v>426.504</v>
+        <v>571.884</v>
       </c>
       <c r="Q3" t="n">
-        <v>434.424</v>
+        <v>579.804</v>
       </c>
       <c r="R3" t="n">
-        <v>454.8484848484852</v>
+        <v>600</v>
       </c>
       <c r="S3" t="n">
-        <v>454.8484848484852</v>
+        <v>600</v>
       </c>
       <c r="T3" t="n">
-        <v>323.5353535353539</v>
+        <v>468.6868686868687</v>
       </c>
       <c r="U3" t="n">
-        <v>323.5353535353539</v>
+        <v>468.6868686868687</v>
       </c>
       <c r="V3" t="n">
-        <v>323.5353535353539</v>
+        <v>468.6868686868687</v>
       </c>
       <c r="W3" t="n">
-        <v>244.7474747474744</v>
+        <v>389.8989898989892</v>
       </c>
       <c r="X3" t="n">
-        <v>244.7474747474744</v>
+        <v>389.8989898989892</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.3535353535346</v>
+        <v>350.5050505050494</v>
       </c>
     </row>
     <row r="4">
@@ -2839,76 +3089,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>159.3939393939379</v>
+        <v>396.4646464646461</v>
       </c>
       <c r="C4" t="n">
-        <v>139.6969696969689</v>
+        <v>376.7676767676771</v>
       </c>
       <c r="D4" t="n">
-        <v>139.6969696969689</v>
+        <v>376.7676767676771</v>
       </c>
       <c r="E4" t="n">
-        <v>139.6969696969689</v>
+        <v>376.7676767676771</v>
       </c>
       <c r="F4" t="n">
-        <v>139.6969696969689</v>
+        <v>376.7676767676771</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>357.0707070707082</v>
       </c>
       <c r="H4" t="n">
-        <v>120</v>
+        <v>357.0707070707082</v>
       </c>
       <c r="I4" t="n">
-        <v>120</v>
+        <v>357.0707070707082</v>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>357.0707070707082</v>
       </c>
       <c r="K4" t="n">
-        <v>146.928</v>
+        <v>383.9987070707082</v>
       </c>
       <c r="L4" t="n">
-        <v>194.052</v>
+        <v>431.1227070707082</v>
       </c>
       <c r="M4" t="n">
-        <v>224.742</v>
+        <v>461.8127070707082</v>
       </c>
       <c r="N4" t="n">
-        <v>278.598</v>
+        <v>515.6687070707083</v>
       </c>
       <c r="O4" t="n">
-        <v>325.722</v>
+        <v>552.876</v>
       </c>
       <c r="P4" t="n">
-        <v>352.65</v>
+        <v>579.804</v>
       </c>
       <c r="Q4" t="n">
-        <v>362.9292929292918</v>
+        <v>593.268</v>
       </c>
       <c r="R4" t="n">
-        <v>362.9292929292918</v>
+        <v>600</v>
       </c>
       <c r="S4" t="n">
-        <v>362.9292929292918</v>
+        <v>600</v>
       </c>
       <c r="T4" t="n">
-        <v>231.6161616161605</v>
+        <v>468.6868686868687</v>
       </c>
       <c r="U4" t="n">
-        <v>231.6161616161605</v>
+        <v>468.6868686868687</v>
       </c>
       <c r="V4" t="n">
-        <v>231.6161616161605</v>
+        <v>468.6868686868687</v>
       </c>
       <c r="W4" t="n">
-        <v>231.6161616161605</v>
+        <v>468.6868686868687</v>
       </c>
       <c r="X4" t="n">
-        <v>231.6161616161605</v>
+        <v>468.6868686868687</v>
       </c>
       <c r="Y4" t="n">
-        <v>192.2222222222222</v>
+        <v>429.2929292929289</v>
       </c>
     </row>
   </sheetData>
@@ -3366,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>20.43427201306106</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -3384,10 +3634,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>21.2</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3449,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.2307927762477177</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -3458,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2307927762476404</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3672,16 +3922,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>19.7</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>58.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3696,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>79.83427201306101</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -3705,13 +3955,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>48.7</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>28.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>6.4</v>
+        <v>18</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3996,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>38.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -4005,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -4032,10 +4282,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>53.6</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4109,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>

--- a/model/Output Files/Year 7.xlsx
+++ b/model/Output Files/Year 7.xlsx
@@ -15,12 +15,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 1" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 2" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 3" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 4" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 5" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -525,22 +523,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -561,40 +559,40 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>61.20999999999476</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>74.90002739314798</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
     </row>
     <row r="3">
@@ -679,16 +677,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>69.90086527810816</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>61.20999999999476</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -727,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>61.20999999999185</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -739,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>113.8221347182759</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -757,396 +755,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Y4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Total Revenues</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Total Capital Costs</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Variable Costs</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Fixed Costs</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Total Profits</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>80569.87555147261</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15404.58112947619</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>29894.27108276862</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1187,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1203,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>10178</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,13 +824,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="C4" t="n">
-        <v>190</v>
+        <v>5149</v>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1230,13 +838,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1296,49 +904,49 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="H2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="I2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="K2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="L2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="M2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="O2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="P2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
     </row>
     <row r="3">
@@ -1346,49 +954,49 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="D3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="E3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="F3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="G3" t="n">
-        <v>34</v>
+        <v>484</v>
       </c>
       <c r="H3" t="n">
-        <v>34</v>
+        <v>487</v>
       </c>
       <c r="I3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="J3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="K3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="L3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="M3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="N3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="O3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="P3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4">
@@ -1396,149 +1004,49 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11</v>
-      </c>
-      <c r="F6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G6" t="n">
-        <v>11</v>
-      </c>
-      <c r="H6" t="n">
-        <v>11</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>11</v>
-      </c>
-      <c r="K6" t="n">
-        <v>11</v>
-      </c>
-      <c r="L6" t="n">
-        <v>11</v>
-      </c>
-      <c r="M6" t="n">
-        <v>11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O6" t="n">
-        <v>11</v>
-      </c>
-      <c r="P6" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1546,7 +1054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1639,76 +1147,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-32.5</v>
+        <v>-1211.51</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.5</v>
+        <v>-1136.26</v>
       </c>
       <c r="D2" t="n">
-        <v>-13</v>
+        <v>-1061.81</v>
       </c>
       <c r="E2" t="n">
-        <v>-13</v>
+        <v>-996.17</v>
       </c>
       <c r="F2" t="n">
-        <v>-13</v>
+        <v>-977.63</v>
       </c>
       <c r="G2" t="n">
-        <v>22.1</v>
+        <v>-866.895</v>
       </c>
       <c r="H2" t="n">
-        <v>50.7</v>
+        <v>-775.78</v>
       </c>
       <c r="I2" t="n">
-        <v>26</v>
+        <v>-566.6700000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>27.3</v>
+        <v>-390.5800000000002</v>
       </c>
       <c r="K2" t="n">
-        <v>80.59999999999999</v>
+        <v>-468.3050000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>114.4</v>
+        <v>-559.8699999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>128.7</v>
+        <v>-699.625</v>
       </c>
       <c r="N2" t="n">
-        <v>143</v>
+        <v>-920.71</v>
       </c>
       <c r="O2" t="n">
-        <v>109.2</v>
+        <v>-1118.445</v>
       </c>
       <c r="P2" t="n">
-        <v>94.90000000000001</v>
+        <v>-1160.89</v>
       </c>
       <c r="Q2" t="n">
-        <v>80.59999999999999</v>
+        <v>-1156.31</v>
       </c>
       <c r="R2" t="n">
-        <v>19.5</v>
+        <v>-1141.46</v>
       </c>
       <c r="S2" t="n">
-        <v>-41.60000000000001</v>
+        <v>-1144.01</v>
       </c>
       <c r="T2" t="n">
-        <v>-88.40000000000001</v>
+        <v>-1289.76</v>
       </c>
       <c r="U2" t="n">
-        <v>-117</v>
+        <v>-1379.2</v>
       </c>
       <c r="V2" t="n">
-        <v>-97.5</v>
+        <v>-1346.75</v>
       </c>
       <c r="W2" t="n">
-        <v>-78</v>
+        <v>-1297.99</v>
       </c>
       <c r="X2" t="n">
-        <v>-52</v>
+        <v>-1140.13</v>
       </c>
       <c r="Y2" t="n">
-        <v>-39</v>
+        <v>-1064.46</v>
       </c>
     </row>
     <row r="3">
@@ -1716,76 +1224,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-32.5</v>
+        <v>-879.3</v>
       </c>
       <c r="C3" t="n">
-        <v>-19.5</v>
+        <v>-811</v>
       </c>
       <c r="D3" t="n">
-        <v>-13</v>
+        <v>-743.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-620.6500000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-335.1400000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>-19.5</v>
+        <v>27.27000000000005</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>193.87</v>
       </c>
       <c r="I3" t="n">
-        <v>83.2</v>
+        <v>379.3449999999998</v>
       </c>
       <c r="J3" t="n">
-        <v>124.8</v>
+        <v>534.7799999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>166.4</v>
+        <v>483.6749999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>187.2</v>
+        <v>452.2999999999998</v>
       </c>
       <c r="M3" t="n">
-        <v>149.5</v>
+        <v>367.57</v>
       </c>
       <c r="N3" t="n">
-        <v>101.4</v>
+        <v>149.0700000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>145.6</v>
+        <v>-161.885</v>
       </c>
       <c r="P3" t="n">
-        <v>32.49999999999999</v>
+        <v>-461.76</v>
       </c>
       <c r="Q3" t="n">
-        <v>39</v>
+        <v>-820.285</v>
       </c>
       <c r="R3" t="n">
-        <v>62.4</v>
+        <v>-932.5600000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>-62.40000000000001</v>
+        <v>-950.8</v>
       </c>
       <c r="T3" t="n">
-        <v>-130</v>
+        <v>-1103.5</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>-1198.5</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>-1173</v>
       </c>
       <c r="W3" t="n">
-        <v>-78</v>
+        <v>-1129.8</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>-977.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>-39</v>
+        <v>-906</v>
       </c>
     </row>
     <row r="4">
@@ -1793,76 +1301,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-32.5</v>
+        <v>-1150.35</v>
       </c>
       <c r="C4" t="n">
-        <v>-19.5</v>
+        <v>-1086.22</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-1021.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-966.9799999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-861.235</v>
       </c>
       <c r="G4" t="n">
-        <v>-19.5</v>
+        <v>-428.7049999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-144.71</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.98000000000013</v>
       </c>
       <c r="J4" t="n">
-        <v>20.8</v>
+        <v>278.04</v>
       </c>
       <c r="K4" t="n">
-        <v>83.2</v>
+        <v>230.71</v>
       </c>
       <c r="L4" t="n">
-        <v>145.6</v>
+        <v>187.8149999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>107.9</v>
+        <v>79.84499999999994</v>
       </c>
       <c r="N4" t="n">
-        <v>166.4</v>
+        <v>-180.765</v>
       </c>
       <c r="O4" t="n">
-        <v>145.6</v>
+        <v>-573.1600000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>83.2</v>
+        <v>-991.62</v>
       </c>
       <c r="Q4" t="n">
-        <v>41.6</v>
+        <v>-1263.34</v>
       </c>
       <c r="R4" t="n">
-        <v>20.8</v>
+        <v>-1258.22</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>-1269.11</v>
       </c>
       <c r="T4" t="n">
-        <v>-130</v>
+        <v>-1424.59</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>-1520.98</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>-1498.26</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>-1456.45</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>-1306.93</v>
       </c>
       <c r="Y4" t="n">
-        <v>-39</v>
+        <v>-1236.82</v>
       </c>
     </row>
   </sheetData>
@@ -1978,46 +1486,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>681.9260000000295</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1913.46400000006</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>3155.18</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>3928.708000000119</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>4040.666000000119</v>
       </c>
       <c r="L2" t="n">
-        <v>8</v>
+        <v>3562.3</v>
       </c>
       <c r="M2" t="n">
-        <v>8.999999999999989</v>
+        <v>2676.814000000118</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>1608.12400000006</v>
       </c>
       <c r="O2" t="n">
-        <v>8.999999999999996</v>
+        <v>641.2140000000295</v>
       </c>
       <c r="P2" t="n">
-        <v>8</v>
+        <v>20.35600000000092</v>
       </c>
       <c r="Q2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2.999999999999986</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2049,49 +1557,49 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>305.3400000000147</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1735.273543510882</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>646.8</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>672</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>5947</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>798</v>
       </c>
       <c r="M3" t="n">
-        <v>10</v>
+        <v>5905</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>756</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>739.2</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>672</v>
       </c>
       <c r="Q3" t="n">
-        <v>5</v>
+        <v>600.5020000000296</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>40.71200000000184</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2129,43 +1637,43 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>458.0100000000149</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2697.170000000118</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>805.5599999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>3953.750000003467</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>850.9200000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>6127.6</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>2176.512323228958</v>
       </c>
       <c r="M4" t="n">
-        <v>8</v>
+        <v>6088.120000000181</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>940.8</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>925.6800000000051</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>1018.26</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2302,31 +1810,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>24.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>54.7</v>
+        <v>1137.684000000562</v>
       </c>
       <c r="I2" t="n">
-        <v>31</v>
+        <v>2588.510000003213</v>
       </c>
       <c r="J2" t="n">
-        <v>33.3</v>
+        <v>3538.12800000092</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3572.361000000906</v>
       </c>
       <c r="L2" t="n">
-        <v>122.4</v>
+        <v>3002.43000000153</v>
       </c>
       <c r="M2" t="n">
-        <v>50.47227833887371</v>
+        <v>1977.189000004407</v>
       </c>
       <c r="N2" t="n">
-        <v>153</v>
+        <v>748.6240000015072</v>
       </c>
       <c r="O2" t="n">
-        <v>118.2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -2335,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>24.49999999999999</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -2356,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>3.201421350240707e-09</v>
       </c>
     </row>
     <row r="3">
@@ -2370,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-2.938122634077445e-09</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2379,31 +1887,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1231.273543510882</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>130.8000000002795</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>5149</v>
       </c>
       <c r="L3" t="n">
-        <v>162.0000000000001</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>5149</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>88.05715743261187</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -2412,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3.000000000000114</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2456,40 +1964,40 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2019.290000000118</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>3129.710000003467</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>8</v>
+        <v>5149</v>
       </c>
       <c r="L4" t="n">
-        <v>62.38312417107429</v>
+        <v>1196.232323228958</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>5149</v>
       </c>
       <c r="N4" t="n">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2611,22 +2119,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.5</v>
+        <v>1089.11</v>
       </c>
       <c r="C2" t="n">
-        <v>19.50000000004657</v>
+        <v>1013.859999999998</v>
       </c>
       <c r="D2" t="n">
-        <v>12.99999999995343</v>
+        <v>939.41</v>
       </c>
       <c r="E2" t="n">
-        <v>12.99999999995343</v>
+        <v>873.7700000000013</v>
       </c>
       <c r="F2" t="n">
-        <v>12.99999999995343</v>
+        <v>977.63</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>62.5689999984769</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -2650,37 +2158,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>354.8309999969031</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1018.134000000005</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1033.910000000003</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1019.060000000004</v>
       </c>
       <c r="S2" t="n">
-        <v>38.60000000000002</v>
+        <v>1069.109972606852</v>
       </c>
       <c r="T2" t="n">
-        <v>86.40000000000001</v>
+        <v>1167.360000000006</v>
       </c>
       <c r="U2" t="n">
-        <v>117.0000000000466</v>
+        <v>1256.8</v>
       </c>
       <c r="V2" t="n">
-        <v>97.5</v>
+        <v>1224.35</v>
       </c>
       <c r="W2" t="n">
-        <v>77.99999999995343</v>
+        <v>1175.59</v>
       </c>
       <c r="X2" t="n">
-        <v>52.00000000004657</v>
+        <v>1017.729999999996</v>
       </c>
       <c r="Y2" t="n">
-        <v>38.99999999997672</v>
+        <v>942.060000003149</v>
       </c>
     </row>
     <row r="3">
@@ -2688,22 +2196,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32.5</v>
+        <v>879.3</v>
       </c>
       <c r="C3" t="n">
-        <v>19.50000000004657</v>
+        <v>811</v>
       </c>
       <c r="D3" t="n">
-        <v>12.99999999995343</v>
+        <v>743.4999999970619</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>315.309999996682</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>19.50000000004657</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2733,31 +2241,31 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>219.7829999986263</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>891.8479999999983</v>
       </c>
       <c r="S3" t="n">
-        <v>60.40000000000001</v>
+        <v>950.8</v>
       </c>
       <c r="T3" t="n">
-        <v>130</v>
+        <v>1103.5</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1198.5</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1173</v>
       </c>
       <c r="W3" t="n">
-        <v>77.99999999995343</v>
+        <v>1129.8</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>977.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>38.99999999997672</v>
+        <v>906</v>
       </c>
     </row>
     <row r="4">
@@ -2765,22 +2273,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32.5</v>
+        <v>1027.95</v>
       </c>
       <c r="C4" t="n">
-        <v>19.50000000004657</v>
+        <v>1016.319134721892</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>899.1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>905.7699999999469</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>403.2249999990509</v>
       </c>
       <c r="G4" t="n">
-        <v>19.50000000004657</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2810,31 +2318,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1263.34</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1197.010000000008</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1269.11</v>
       </c>
       <c r="T4" t="n">
-        <v>130</v>
+        <v>1424.59</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1520.98</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1384.437865281724</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1456.45</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1306.93</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.99999999997672</v>
+        <v>1236.82</v>
       </c>
     </row>
   </sheetData>
@@ -2935,76 +2443,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>211.090909090815</v>
+        <v>8025.502020200496</v>
       </c>
       <c r="C2" t="n">
-        <v>191.3939393937983</v>
+        <v>7001.401010099488</v>
       </c>
       <c r="D2" t="n">
-        <v>178.2626262625322</v>
+        <v>6052.502020200498</v>
       </c>
       <c r="E2" t="n">
-        <v>165.1313131312661</v>
+        <v>5169.906060604537</v>
       </c>
       <c r="F2" t="n">
-        <v>152</v>
+        <v>4182.401010099486</v>
       </c>
       <c r="G2" t="n">
-        <v>175.859</v>
+        <v>4119.2</v>
       </c>
       <c r="H2" t="n">
-        <v>230.012</v>
+        <v>5245.507160000572</v>
       </c>
       <c r="I2" t="n">
-        <v>260.702</v>
+        <v>7808.132060003752</v>
       </c>
       <c r="J2" t="n">
-        <v>293.669</v>
+        <v>11310.87878000466</v>
       </c>
       <c r="K2" t="n">
-        <v>293.669</v>
+        <v>14847.51617000556</v>
       </c>
       <c r="L2" t="n">
-        <v>414.845</v>
+        <v>17819.92187000707</v>
       </c>
       <c r="M2" t="n">
-        <v>464.812555555485</v>
+        <v>19777.33898001144</v>
       </c>
       <c r="N2" t="n">
-        <v>616.282555555485</v>
+        <v>20518.47674001293</v>
       </c>
       <c r="O2" t="n">
-        <v>733.3005555554849</v>
+        <v>20160.06158850091</v>
       </c>
       <c r="P2" t="n">
-        <v>733.3005555554849</v>
+        <v>19131.64340668272</v>
       </c>
       <c r="Q2" t="n">
-        <v>733.3005555554849</v>
+        <v>18087.28987132918</v>
       </c>
       <c r="R2" t="n">
-        <v>757.5555555554849</v>
+        <v>17057.93633597564</v>
       </c>
       <c r="S2" t="n">
-        <v>718.565656565586</v>
+        <v>15978.02727273639</v>
       </c>
       <c r="T2" t="n">
-        <v>631.2929292928587</v>
+        <v>14798.87575758486</v>
       </c>
       <c r="U2" t="n">
-        <v>513.1111111109935</v>
+        <v>13529.38080808991</v>
       </c>
       <c r="V2" t="n">
-        <v>414.626262626145</v>
+        <v>12292.66363637274</v>
       </c>
       <c r="W2" t="n">
-        <v>335.8383838383133</v>
+        <v>11105.19898989748</v>
       </c>
       <c r="X2" t="n">
-        <v>283.3131313130137</v>
+        <v>10077.18888888738</v>
       </c>
       <c r="Y2" t="n">
-        <v>243.9191919190979</v>
+        <v>9125.613131311608</v>
       </c>
     </row>
     <row r="3">
@@ -3012,76 +2520,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>204.5252525252995</v>
+        <v>6007.896969693558</v>
       </c>
       <c r="C3" t="n">
-        <v>184.8282828282828</v>
+        <v>5188.70505050164</v>
       </c>
       <c r="D3" t="n">
-        <v>171.6969696970167</v>
+        <v>4437.694949491598</v>
       </c>
       <c r="E3" t="n">
-        <v>171.6969696970167</v>
+        <v>4119.2</v>
       </c>
       <c r="F3" t="n">
-        <v>171.6969696970167</v>
+        <v>4119.2</v>
       </c>
       <c r="G3" t="n">
-        <v>152</v>
+        <v>5338.160808075773</v>
       </c>
       <c r="H3" t="n">
-        <v>152</v>
+        <v>5338.160808075773</v>
       </c>
       <c r="I3" t="n">
-        <v>159.92</v>
+        <v>5338.160808075635</v>
       </c>
       <c r="J3" t="n">
-        <v>289.4120000002766</v>
+        <v>5338.160808075635</v>
       </c>
       <c r="K3" t="n">
-        <v>297.3320000002767</v>
+        <v>10435.67080807581</v>
       </c>
       <c r="L3" t="n">
-        <v>457.7120000002766</v>
+        <v>10435.67080807581</v>
       </c>
       <c r="M3" t="n">
-        <v>457.7120000002766</v>
+        <v>15533.180808076</v>
       </c>
       <c r="N3" t="n">
-        <v>457.7120000002766</v>
+        <v>15533.180808076</v>
       </c>
       <c r="O3" t="n">
-        <v>544.8885858585624</v>
+        <v>15533.18080807601</v>
       </c>
       <c r="P3" t="n">
-        <v>544.8885858585624</v>
+        <v>15533.18080807436</v>
       </c>
       <c r="Q3" t="n">
-        <v>544.8885858585624</v>
+        <v>15311.17777777272</v>
       </c>
       <c r="R3" t="n">
-        <v>547.8585858585624</v>
+        <v>14410.32121211615</v>
       </c>
       <c r="S3" t="n">
-        <v>486.8484848484613</v>
+        <v>13449.91717171211</v>
       </c>
       <c r="T3" t="n">
-        <v>355.53535353533</v>
+        <v>12335.27070706565</v>
       </c>
       <c r="U3" t="n">
-        <v>355.53535353533</v>
+        <v>11124.66464646123</v>
       </c>
       <c r="V3" t="n">
-        <v>355.5353535353301</v>
+        <v>9939.816161612744</v>
       </c>
       <c r="W3" t="n">
-        <v>276.7474747474983</v>
+        <v>8798.604040400623</v>
       </c>
       <c r="X3" t="n">
-        <v>276.7474747474983</v>
+        <v>7811.230303026884</v>
       </c>
       <c r="Y3" t="n">
-        <v>237.3535353535824</v>
+        <v>6896.078787874693</v>
       </c>
     </row>
     <row r="4">
@@ -3089,76 +2597,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>191.3939393940335</v>
+        <v>7376.183974463656</v>
       </c>
       <c r="C4" t="n">
-        <v>171.6969696970167</v>
+        <v>6349.598989896089</v>
       </c>
       <c r="D4" t="n">
-        <v>171.6969696970167</v>
+        <v>5441.417171714271</v>
       </c>
       <c r="E4" t="n">
-        <v>171.6969696970167</v>
+        <v>4526.497979795075</v>
       </c>
       <c r="F4" t="n">
-        <v>171.6969696970167</v>
+        <v>4119.199999997683</v>
       </c>
       <c r="G4" t="n">
-        <v>152</v>
+        <v>6118.2970999978</v>
       </c>
       <c r="H4" t="n">
-        <v>152</v>
+        <v>6118.2970999978</v>
       </c>
       <c r="I4" t="n">
-        <v>152</v>
+        <v>9216.710000001232</v>
       </c>
       <c r="J4" t="n">
-        <v>153.98</v>
+        <v>9216.710000003732</v>
       </c>
       <c r="K4" t="n">
-        <v>161.9</v>
+        <v>14314.22000000391</v>
       </c>
       <c r="L4" t="n">
-        <v>223.6592929293635</v>
+        <v>15498.49000000058</v>
       </c>
       <c r="M4" t="n">
-        <v>223.6592929293635</v>
+        <v>20596</v>
       </c>
       <c r="N4" t="n">
-        <v>374.1392929293635</v>
+        <v>20596</v>
       </c>
       <c r="O4" t="n">
-        <v>381.0692929293635</v>
+        <v>20596</v>
       </c>
       <c r="P4" t="n">
-        <v>388.9892929293636</v>
+        <v>20596</v>
       </c>
       <c r="Q4" t="n">
-        <v>392.9492929293635</v>
+        <v>19319.89898989975</v>
       </c>
       <c r="R4" t="n">
-        <v>394.9292929293636</v>
+        <v>18110.79797979873</v>
       </c>
       <c r="S4" t="n">
-        <v>394.9292929293636</v>
+        <v>16828.86868686944</v>
       </c>
       <c r="T4" t="n">
-        <v>263.6161616162323</v>
+        <v>15389.88888888889</v>
       </c>
       <c r="U4" t="n">
-        <v>263.6161616162322</v>
+        <v>13853.54545454621</v>
       </c>
       <c r="V4" t="n">
-        <v>263.6161616162322</v>
+        <v>12455.12336840305</v>
       </c>
       <c r="W4" t="n">
-        <v>263.6161616162322</v>
+        <v>10983.96175224143</v>
       </c>
       <c r="X4" t="n">
-        <v>263.6161616162322</v>
+        <v>9663.830439110121</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.2222222223163</v>
+        <v>8414.51730779699</v>
       </c>
     </row>
     <row r="5">
@@ -6832,40 +6340,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>23.8000000002794</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44.20000000018626</v>
+        <v>146.3700000011595</v>
       </c>
       <c r="J2" t="n">
-        <v>50.9999999997206</v>
+        <v>311.1</v>
       </c>
       <c r="K2" t="n">
-        <v>19</v>
+        <v>349.095000000787</v>
       </c>
       <c r="L2" t="n">
-        <v>108.8000000002794</v>
+        <v>268.7700000011828</v>
       </c>
       <c r="M2" t="n">
-        <v>64.87227833887373</v>
+        <v>116.5350000022445</v>
       </c>
       <c r="N2" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>112.2000000001863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>20.6</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.8000000002794</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -6918,28 +6426,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>13.4</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>81.05715743261187</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>23.6</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -7001,13 +6509,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>55.38312417107428</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>15.4</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -7019,7 +6527,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -7156,43 +6664,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.699999999464481</v>
+        <v>6.360000001499429</v>
       </c>
       <c r="H2" t="n">
-        <v>3.499999997718263</v>
+        <v>49.04000000050291</v>
       </c>
       <c r="I2" t="n">
-        <v>3.800000000279397</v>
+        <v>100.0800000020536</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>130.7600000002421</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="L2" t="n">
-        <v>7.200000000186265</v>
+        <v>118.8800000002375</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>84.32000000204425</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>42.56000000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>7.799999999557599</v>
+        <v>4.800000003073364</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.399999996297993</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>3.700000000186265</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -7227,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2.000000003303398</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -7242,7 +6750,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -7263,13 +6771,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.3999999999999999</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -7319,10 +6827,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -7331,13 +6839,13 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -7378,7 +6886,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7387,77 +6895,30 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="n">
-        <v>23</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total Revenues</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total Capital Costs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Variable Costs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Fixed Costs</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total Profits</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -7465,230 +6926,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3374821.193790947</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>9800</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>436299.7287129385</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>182495</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4.400000000256114</v>
-      </c>
-      <c r="H2" t="n">
-        <v>9.20000000228174</v>
-      </c>
-      <c r="I2" t="n">
-        <v>9.199999999534342</v>
-      </c>
-      <c r="J2" t="n">
-        <v>10.8000000002794</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>19.19999999953433</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24</v>
-      </c>
-      <c r="O2" t="n">
-        <v>20.40000000025611</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>15.60000000370201</v>
-      </c>
-      <c r="R2" t="n">
-        <v>8.799999999534336</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>16.8000000002794</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>18</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
+        <v>1322743.075115741</v>
       </c>
     </row>
   </sheetData>

--- a/model/Output Files/Year 7.xlsx
+++ b/model/Output Files/Year 7.xlsx
@@ -15,10 +15,11 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 1" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 2" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 3" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -523,22 +524,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="C2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="D2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="E2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="G2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -559,40 +560,40 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>61.20999999999476</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="P2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="Q2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="R2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="S2" t="n">
-        <v>74.90002739314798</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="U2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="V2" t="n">
-        <v>122.4</v>
+        <v>55.85832279237498</v>
       </c>
       <c r="W2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="X2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3">
@@ -645,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>2.779074748104904e-09</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -677,16 +678,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>122.4</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>69.90086527810816</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>122.4</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>61.20999999999476</v>
+        <v>55.51000000130811</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -725,10 +726,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>61.20999999999185</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>55.50999999997055</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -737,16 +738,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>113.8221347182759</v>
+        <v>1.963144313776866e-09</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>79.03099999752337</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1.478838385082781e-09</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -755,6 +756,72 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total Revenues</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total Capital Costs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Variable Costs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Fixed Costs</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total Profits</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3384650.335185532</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>428661.132272981</v>
+      </c>
+      <c r="E2" t="n">
+        <v>183030</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1330802.53903098</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -795,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -811,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10178</v>
+        <v>10206</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -824,13 +891,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" t="n">
-        <v>5149</v>
+        <v>5248</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -838,13 +905,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -969,16 +1036,16 @@
         <v>510</v>
       </c>
       <c r="G3" t="n">
-        <v>484</v>
+        <v>510</v>
       </c>
       <c r="H3" t="n">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="I3" t="n">
         <v>510</v>
       </c>
       <c r="J3" t="n">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K3" t="n">
         <v>510</v>
@@ -1019,16 +1086,16 @@
         <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="H4" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4" t="n">
         <v>40</v>
       </c>
       <c r="J4" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K4" t="n">
         <v>40</v>
@@ -1047,6 +1114,56 @@
       </c>
       <c r="P4" t="n">
         <v>40</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +1171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1156,43 +1273,43 @@
         <v>-1061.81</v>
       </c>
       <c r="E2" t="n">
-        <v>-996.17</v>
+        <v>-1031.17</v>
       </c>
       <c r="F2" t="n">
         <v>-977.63</v>
       </c>
       <c r="G2" t="n">
-        <v>-866.895</v>
+        <v>-858.895</v>
       </c>
       <c r="H2" t="n">
-        <v>-775.78</v>
+        <v>-752.78</v>
       </c>
       <c r="I2" t="n">
-        <v>-566.6700000000001</v>
+        <v>-528.6700000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>-390.5800000000002</v>
+        <v>-343.5800000000002</v>
       </c>
       <c r="K2" t="n">
-        <v>-468.3050000000001</v>
+        <v>-420.3050000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>-559.8699999999999</v>
+        <v>-516.8699999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>-699.625</v>
+        <v>-667.625</v>
       </c>
       <c r="N2" t="n">
-        <v>-920.71</v>
+        <v>-901.71</v>
       </c>
       <c r="O2" t="n">
-        <v>-1118.445</v>
+        <v>-1111.445</v>
       </c>
       <c r="P2" t="n">
         <v>-1160.89</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1156.31</v>
+        <v>-1191.31</v>
       </c>
       <c r="R2" t="n">
         <v>-1141.46</v>
@@ -1233,43 +1350,43 @@
         <v>-743.5</v>
       </c>
       <c r="E3" t="n">
-        <v>-620.6500000000001</v>
+        <v>-651.6500000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>-335.1400000000001</v>
+        <v>-316.1400000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>27.27000000000005</v>
+        <v>69.27000000000005</v>
       </c>
       <c r="H3" t="n">
-        <v>193.87</v>
+        <v>254.87</v>
       </c>
       <c r="I3" t="n">
-        <v>379.3449999999998</v>
+        <v>454.3449999999998</v>
       </c>
       <c r="J3" t="n">
-        <v>534.7799999999999</v>
+        <v>618.7799999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>483.6749999999999</v>
+        <v>570.675</v>
       </c>
       <c r="L3" t="n">
-        <v>452.2999999999998</v>
+        <v>538.2999999999998</v>
       </c>
       <c r="M3" t="n">
-        <v>367.57</v>
+        <v>445.57</v>
       </c>
       <c r="N3" t="n">
-        <v>149.0700000000001</v>
+        <v>215.0700000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>-161.885</v>
+        <v>-112.885</v>
       </c>
       <c r="P3" t="n">
-        <v>-461.76</v>
+        <v>-434.76</v>
       </c>
       <c r="Q3" t="n">
-        <v>-820.285</v>
+        <v>-847.285</v>
       </c>
       <c r="R3" t="n">
         <v>-932.5600000000001</v>
@@ -1310,43 +1427,43 @@
         <v>-1021.5</v>
       </c>
       <c r="E4" t="n">
-        <v>-966.9799999999999</v>
+        <v>-1001.98</v>
       </c>
       <c r="F4" t="n">
-        <v>-861.235</v>
+        <v>-856.235</v>
       </c>
       <c r="G4" t="n">
-        <v>-428.7049999999999</v>
+        <v>-396.7049999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>-144.71</v>
+        <v>-85.70999999999998</v>
       </c>
       <c r="I4" t="n">
-        <v>96.98000000000013</v>
+        <v>172.9800000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>278.04</v>
+        <v>364.04</v>
       </c>
       <c r="K4" t="n">
-        <v>230.71</v>
+        <v>320.71</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8149999999999</v>
+        <v>275.8149999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>79.84499999999994</v>
+        <v>158.8449999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>-180.765</v>
+        <v>-115.765</v>
       </c>
       <c r="O4" t="n">
-        <v>-573.1600000000001</v>
+        <v>-530.1600000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>-991.62</v>
+        <v>-976.62</v>
       </c>
       <c r="Q4" t="n">
-        <v>-1263.34</v>
+        <v>-1298.34</v>
       </c>
       <c r="R4" t="n">
         <v>-1258.22</v>
@@ -1486,34 +1603,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>681.9260000000295</v>
+        <v>683.8020000000292</v>
       </c>
       <c r="H2" t="n">
-        <v>1913.46400000006</v>
+        <v>1918.728000000059</v>
       </c>
       <c r="I2" t="n">
-        <v>3155.18</v>
+        <v>3163.86</v>
       </c>
       <c r="J2" t="n">
-        <v>3928.708000000119</v>
+        <v>3939.516000000117</v>
       </c>
       <c r="K2" t="n">
-        <v>4040.666000000119</v>
+        <v>4051.782</v>
       </c>
       <c r="L2" t="n">
-        <v>3562.3</v>
+        <v>3572.1</v>
       </c>
       <c r="M2" t="n">
-        <v>2676.814000000118</v>
+        <v>2684.178000000117</v>
       </c>
       <c r="N2" t="n">
-        <v>1608.12400000006</v>
+        <v>1612.548000000059</v>
       </c>
       <c r="O2" t="n">
-        <v>641.2140000000295</v>
+        <v>642.9780000000292</v>
       </c>
       <c r="P2" t="n">
-        <v>20.35600000000092</v>
+        <v>20.41199999891251</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -1557,31 +1674,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>305.3400000000147</v>
+        <v>306.1800000000073</v>
       </c>
       <c r="F3" t="n">
-        <v>462</v>
+        <v>1592.136000000059</v>
       </c>
       <c r="G3" t="n">
-        <v>1735.273543510882</v>
+        <v>3490.451999999964</v>
       </c>
       <c r="H3" t="n">
         <v>630</v>
       </c>
       <c r="I3" t="n">
-        <v>646.8</v>
+        <v>5894.8</v>
       </c>
       <c r="J3" t="n">
-        <v>672</v>
+        <v>1279.062306701512</v>
       </c>
       <c r="K3" t="n">
-        <v>5947</v>
+        <v>798</v>
       </c>
       <c r="L3" t="n">
         <v>798</v>
       </c>
       <c r="M3" t="n">
-        <v>5905</v>
+        <v>756</v>
       </c>
       <c r="N3" t="n">
         <v>756</v>
@@ -1590,13 +1707,13 @@
         <v>739.2</v>
       </c>
       <c r="P3" t="n">
-        <v>672</v>
+        <v>2286.144000000059</v>
       </c>
       <c r="Q3" t="n">
-        <v>600.5020000000296</v>
+        <v>602.1540000000147</v>
       </c>
       <c r="R3" t="n">
-        <v>40.71200000000184</v>
+        <v>40.82400000000182</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1637,37 +1754,37 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>458.0100000000149</v>
+        <v>459.2700000000146</v>
       </c>
       <c r="G4" t="n">
-        <v>2697.170000000118</v>
+        <v>2704.590000000001</v>
       </c>
       <c r="H4" t="n">
         <v>805.5599999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>3953.750000003467</v>
+        <v>824.04</v>
       </c>
       <c r="J4" t="n">
         <v>850.9200000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>6127.6</v>
+        <v>6226.6</v>
       </c>
       <c r="L4" t="n">
-        <v>2176.512323228958</v>
+        <v>3523.38432323564</v>
       </c>
       <c r="M4" t="n">
-        <v>6088.120000000181</v>
+        <v>939.1200000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>940.8</v>
+        <v>5419.386</v>
       </c>
       <c r="O4" t="n">
-        <v>925.6800000000051</v>
+        <v>3592.512000000117</v>
       </c>
       <c r="P4" t="n">
-        <v>1018.26</v>
+        <v>1018.25999999658</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -1798,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.312140346125662e-09</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1813,25 +1930,25 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1137.684000000562</v>
+        <v>1165.948000000561</v>
       </c>
       <c r="I2" t="n">
-        <v>2588.510000003213</v>
+        <v>2635.189999999497</v>
       </c>
       <c r="J2" t="n">
-        <v>3538.12800000092</v>
+        <v>3595.936000000921</v>
       </c>
       <c r="K2" t="n">
-        <v>3572.361000000906</v>
+        <v>3631.477000000787</v>
       </c>
       <c r="L2" t="n">
-        <v>3002.43000000153</v>
+        <v>3055.230000001538</v>
       </c>
       <c r="M2" t="n">
-        <v>1977.189000004407</v>
+        <v>2016.553000004409</v>
       </c>
       <c r="N2" t="n">
-        <v>748.6240000015072</v>
+        <v>710.8379999953423</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1849,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>2.89575800524284e-09</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1864,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.201421350240707e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1878,34 +1995,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.938122634077445e-09</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1130.136</v>
       </c>
       <c r="G3" t="n">
-        <v>1231.273543510882</v>
+        <v>2986.451999998169</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5248</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>607.0623067015116</v>
       </c>
       <c r="K3" t="n">
-        <v>5149</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>5149</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -1914,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1614.14399999982</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -1935,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>2.561137080192566e-08</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -1964,34 +2081,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2019.290000000118</v>
+        <v>2026.710000000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3129.710000003467</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>5149</v>
+        <v>5248</v>
       </c>
       <c r="L4" t="n">
-        <v>1196.232323228958</v>
+        <v>2543.104323232326</v>
       </c>
       <c r="M4" t="n">
-        <v>5149</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4478.585999999999</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>2666.832000000283</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>-3.419791946817904e-09</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -2119,22 +2236,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1089.11</v>
+        <v>1100.509999999437</v>
       </c>
       <c r="C2" t="n">
-        <v>1013.859999999998</v>
+        <v>1025.260000001312</v>
       </c>
       <c r="D2" t="n">
-        <v>939.41</v>
+        <v>950.8100000000005</v>
       </c>
       <c r="E2" t="n">
-        <v>873.7700000000013</v>
+        <v>920.1700000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>977.63</v>
+        <v>866.629999999709</v>
       </c>
       <c r="G2" t="n">
-        <v>62.5689999984769</v>
+        <v>64.09299999850055</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -2158,37 +2275,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>354.8309999969031</v>
+        <v>357.4669999969267</v>
       </c>
       <c r="P2" t="n">
-        <v>1018.134000000005</v>
+        <v>1029.478000001087</v>
       </c>
       <c r="Q2" t="n">
-        <v>1033.910000000003</v>
+        <v>1080.31</v>
       </c>
       <c r="R2" t="n">
-        <v>1019.060000000004</v>
+        <v>1030.46</v>
       </c>
       <c r="S2" t="n">
-        <v>1069.109972606852</v>
+        <v>1144.01</v>
       </c>
       <c r="T2" t="n">
-        <v>1167.360000000006</v>
+        <v>1178.760000002838</v>
       </c>
       <c r="U2" t="n">
-        <v>1256.8</v>
+        <v>1268.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1224.35</v>
+        <v>1290.891677207625</v>
       </c>
       <c r="W2" t="n">
-        <v>1175.59</v>
+        <v>1186.990000000474</v>
       </c>
       <c r="X2" t="n">
-        <v>1017.729999999996</v>
+        <v>1029.129999999623</v>
       </c>
       <c r="Y2" t="n">
-        <v>942.060000003149</v>
+        <v>953.4599999999999</v>
       </c>
     </row>
     <row r="3">
@@ -2202,10 +2319,10 @@
         <v>811</v>
       </c>
       <c r="D3" t="n">
-        <v>743.4999999970619</v>
+        <v>743.5</v>
       </c>
       <c r="E3" t="n">
-        <v>315.309999996682</v>
+        <v>345.4699999999994</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2241,10 +2358,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>219.7829999986263</v>
+        <v>245.130999995831</v>
       </c>
       <c r="R3" t="n">
-        <v>891.8479999999983</v>
+        <v>891.7359999999983</v>
       </c>
       <c r="S3" t="n">
         <v>950.8</v>
@@ -2259,7 +2376,7 @@
         <v>1173</v>
       </c>
       <c r="W3" t="n">
-        <v>1129.8</v>
+        <v>1129.800000025611</v>
       </c>
       <c r="X3" t="n">
         <v>977.5</v>
@@ -2273,19 +2390,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1027.95</v>
+        <v>1150.35</v>
       </c>
       <c r="C4" t="n">
-        <v>1016.319134721892</v>
+        <v>1086.22</v>
       </c>
       <c r="D4" t="n">
-        <v>899.1</v>
+        <v>1021.5</v>
       </c>
       <c r="E4" t="n">
-        <v>905.7699999999469</v>
+        <v>946.4700000022755</v>
       </c>
       <c r="F4" t="n">
-        <v>403.2249999990509</v>
+        <v>396.965</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -2303,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>-1.31419869326055e-09</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -2318,31 +2435,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1263.34</v>
+        <v>1298.34</v>
       </c>
       <c r="R4" t="n">
-        <v>1197.010000000008</v>
+        <v>1258.22</v>
       </c>
       <c r="S4" t="n">
-        <v>1269.11</v>
+        <v>1213.6</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.59</v>
+        <v>1424.589999999042</v>
       </c>
       <c r="U4" t="n">
         <v>1520.98</v>
       </c>
       <c r="V4" t="n">
-        <v>1384.437865281724</v>
+        <v>1498.26</v>
       </c>
       <c r="W4" t="n">
-        <v>1456.45</v>
+        <v>1377.419000002477</v>
       </c>
       <c r="X4" t="n">
-        <v>1306.93</v>
+        <v>1306.929999998521</v>
       </c>
       <c r="Y4" t="n">
-        <v>1236.82</v>
+        <v>1125.819999999325</v>
       </c>
     </row>
   </sheetData>
@@ -2443,76 +2560,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8025.502020200496</v>
+        <v>8064.01919191741</v>
       </c>
       <c r="C2" t="n">
-        <v>7001.401010099488</v>
+        <v>7028.403030301222</v>
       </c>
       <c r="D2" t="n">
-        <v>6052.502020200498</v>
+        <v>6067.988888887081</v>
       </c>
       <c r="E2" t="n">
-        <v>5169.906060604537</v>
+        <v>5138.524242422434</v>
       </c>
       <c r="F2" t="n">
-        <v>4182.401010099486</v>
+        <v>4263.14040403889</v>
       </c>
       <c r="G2" t="n">
-        <v>4119.2</v>
+        <v>4198.4</v>
       </c>
       <c r="H2" t="n">
-        <v>5245.507160000572</v>
+        <v>5352.688520000556</v>
       </c>
       <c r="I2" t="n">
-        <v>7808.132060003752</v>
+        <v>7961.526620000058</v>
       </c>
       <c r="J2" t="n">
-        <v>11310.87878000466</v>
+        <v>11521.50326000097</v>
       </c>
       <c r="K2" t="n">
-        <v>14847.51617000556</v>
+        <v>15116.66549000175</v>
       </c>
       <c r="L2" t="n">
-        <v>17819.92187000707</v>
+        <v>18141.34319000327</v>
       </c>
       <c r="M2" t="n">
-        <v>19777.33898001144</v>
+        <v>20137.73066000763</v>
       </c>
       <c r="N2" t="n">
-        <v>20518.47674001293</v>
+        <v>20841.46028000302</v>
       </c>
       <c r="O2" t="n">
-        <v>20160.06158850091</v>
+        <v>20480.38250222835</v>
       </c>
       <c r="P2" t="n">
-        <v>19131.64340668272</v>
+        <v>19440.50573455048</v>
       </c>
       <c r="Q2" t="n">
-        <v>18087.28987132918</v>
+        <v>18349.28351232826</v>
       </c>
       <c r="R2" t="n">
-        <v>17057.93633597564</v>
+        <v>17308.41482545957</v>
       </c>
       <c r="S2" t="n">
-        <v>15978.02727273639</v>
+        <v>16152.84916889392</v>
       </c>
       <c r="T2" t="n">
-        <v>14798.87575758486</v>
+        <v>14962.18250222725</v>
       </c>
       <c r="U2" t="n">
-        <v>13529.38080808991</v>
+        <v>13681.17240121744</v>
       </c>
       <c r="V2" t="n">
-        <v>12292.66363637274</v>
+        <v>12377.24141413904</v>
       </c>
       <c r="W2" t="n">
-        <v>11105.19898989748</v>
+        <v>11178.26161615728</v>
       </c>
       <c r="X2" t="n">
-        <v>10077.18888888738</v>
+        <v>10138.73636363093</v>
       </c>
       <c r="Y2" t="n">
-        <v>9125.613131311608</v>
+        <v>9175.645454543104</v>
       </c>
     </row>
     <row r="3">
@@ -2520,76 +2637,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6007.896969693558</v>
+        <v>11441.22525252848</v>
       </c>
       <c r="C3" t="n">
-        <v>5188.70505050164</v>
+        <v>10622.03333333803</v>
       </c>
       <c r="D3" t="n">
-        <v>4437.694949491598</v>
+        <v>9871.023232327927</v>
       </c>
       <c r="E3" t="n">
-        <v>4119.2</v>
+        <v>9522.063636368332</v>
       </c>
       <c r="F3" t="n">
-        <v>4119.2</v>
+        <v>10640.89827636833</v>
       </c>
       <c r="G3" t="n">
-        <v>5338.160808075773</v>
+        <v>13597.48575636833</v>
       </c>
       <c r="H3" t="n">
-        <v>5338.160808075773</v>
+        <v>13597.48575636833</v>
       </c>
       <c r="I3" t="n">
-        <v>5338.160808075635</v>
+        <v>18793.00575636833</v>
       </c>
       <c r="J3" t="n">
-        <v>5338.160808075635</v>
+        <v>19393.99744000283</v>
       </c>
       <c r="K3" t="n">
-        <v>10435.67080807581</v>
+        <v>19393.99744000283</v>
       </c>
       <c r="L3" t="n">
-        <v>10435.67080807581</v>
+        <v>19393.99744000283</v>
       </c>
       <c r="M3" t="n">
-        <v>15533.180808076</v>
+        <v>19393.99744000283</v>
       </c>
       <c r="N3" t="n">
-        <v>15533.180808076</v>
+        <v>19393.99744000283</v>
       </c>
       <c r="O3" t="n">
-        <v>15533.18080807601</v>
+        <v>19393.99744000283</v>
       </c>
       <c r="P3" t="n">
-        <v>15533.18080807436</v>
+        <v>20992</v>
       </c>
       <c r="Q3" t="n">
-        <v>15311.17777777272</v>
+        <v>20744.39292929714</v>
       </c>
       <c r="R3" t="n">
-        <v>14410.32121211615</v>
+        <v>19843.64949495371</v>
       </c>
       <c r="S3" t="n">
-        <v>13449.91717171211</v>
+        <v>18883.24545454967</v>
       </c>
       <c r="T3" t="n">
-        <v>12335.27070706565</v>
+        <v>17768.59898990321</v>
       </c>
       <c r="U3" t="n">
-        <v>11124.66464646123</v>
+        <v>16557.99292929715</v>
       </c>
       <c r="V3" t="n">
-        <v>9939.816161612744</v>
+        <v>15373.14444444866</v>
       </c>
       <c r="W3" t="n">
-        <v>8798.604040400623</v>
+        <v>14231.93232323602</v>
       </c>
       <c r="X3" t="n">
-        <v>7811.230303026884</v>
+        <v>13244.55858586181</v>
       </c>
       <c r="Y3" t="n">
-        <v>6896.078787874693</v>
+        <v>12329.40707071029</v>
       </c>
     </row>
     <row r="4">
@@ -2597,76 +2714,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7376.183974463656</v>
+        <v>7684.415151515717</v>
       </c>
       <c r="C4" t="n">
-        <v>6349.598989896089</v>
+        <v>6587.223232323799</v>
       </c>
       <c r="D4" t="n">
-        <v>5441.417171714271</v>
+        <v>5555.405050505782</v>
       </c>
       <c r="E4" t="n">
-        <v>4526.497979795075</v>
+        <v>4599.374747474748</v>
       </c>
       <c r="F4" t="n">
-        <v>4119.199999997683</v>
+        <v>4198.4</v>
       </c>
       <c r="G4" t="n">
-        <v>6118.2970999978</v>
+        <v>6204.842900000001</v>
       </c>
       <c r="H4" t="n">
-        <v>6118.2970999978</v>
+        <v>6204.842900000001</v>
       </c>
       <c r="I4" t="n">
-        <v>9216.710000001232</v>
+        <v>6204.842900000001</v>
       </c>
       <c r="J4" t="n">
-        <v>9216.710000003732</v>
+        <v>6204.842900000001</v>
       </c>
       <c r="K4" t="n">
-        <v>14314.22000000391</v>
+        <v>11400.3629</v>
       </c>
       <c r="L4" t="n">
-        <v>15498.49000000058</v>
+        <v>13918.03618000155</v>
       </c>
       <c r="M4" t="n">
-        <v>20596</v>
+        <v>13918.03618000311</v>
       </c>
       <c r="N4" t="n">
-        <v>20596</v>
+        <v>18351.83632000311</v>
       </c>
       <c r="O4" t="n">
-        <v>20596</v>
+        <v>20992</v>
       </c>
       <c r="P4" t="n">
-        <v>20596</v>
+        <v>20992</v>
       </c>
       <c r="Q4" t="n">
-        <v>19319.89898989975</v>
+        <v>19680.54545454546</v>
       </c>
       <c r="R4" t="n">
-        <v>18110.79797979873</v>
+        <v>18409.61616161318</v>
       </c>
       <c r="S4" t="n">
-        <v>16828.86868686944</v>
+        <v>17183.75757575703</v>
       </c>
       <c r="T4" t="n">
-        <v>15389.88888888889</v>
+        <v>15744.77777777778</v>
       </c>
       <c r="U4" t="n">
-        <v>13853.54545454621</v>
+        <v>14208.43434343671</v>
       </c>
       <c r="V4" t="n">
-        <v>12455.12336840305</v>
+        <v>12695.04040404277</v>
       </c>
       <c r="W4" t="n">
-        <v>10983.96175224143</v>
+        <v>11303.70808080647</v>
       </c>
       <c r="X4" t="n">
-        <v>9663.830439110121</v>
+        <v>9983.576767676652</v>
       </c>
       <c r="Y4" t="n">
-        <v>8414.51730779699</v>
+        <v>8846.384848485415</v>
       </c>
     </row>
     <row r="5">
@@ -6346,7 +6463,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>146.3700000011595</v>
+        <v>146.3699999974433</v>
       </c>
       <c r="J2" t="n">
         <v>311.1</v>
@@ -6685,7 +6802,7 @@
         <v>84.32000000204425</v>
       </c>
       <c r="N2" t="n">
-        <v>42.56000000000001</v>
+        <v>42.55999999528376</v>
       </c>
       <c r="O2" t="n">
         <v>4.800000003073364</v>
@@ -6735,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.000000003303398</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -6771,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>11.6</v>
+        <v>11.6000000013737</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -6886,7 +7003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6895,30 +7012,77 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Total Revenues</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Total Capital Costs</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Variable Costs</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Fixed Costs</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Total Profits</t>
-        </is>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -6926,19 +7090,230 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3374821.193790947</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9800</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>436299.7287129385</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>182495</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1322743.075115741</v>
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>23</v>
+      </c>
+      <c r="I2" t="n">
+        <v>38</v>
+      </c>
+      <c r="J2" t="n">
+        <v>47</v>
+      </c>
+      <c r="K2" t="n">
+        <v>48</v>
+      </c>
+      <c r="L2" t="n">
+        <v>43</v>
+      </c>
+      <c r="M2" t="n">
+        <v>32</v>
+      </c>
+      <c r="N2" t="n">
+        <v>19</v>
+      </c>
+      <c r="O2" t="n">
+        <v>7</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
